--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/UsdLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/UsdLibor.xlsx
@@ -815,6 +815,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,13 +829,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -856,13 +856,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Feuil1"/>
+      <sheetName val="Menu"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <definedNames>
       <definedName name="qlSerializationPath"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1177,17 +1179,17 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -1257,7 +1259,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1391,14 +1393,14 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>UsdLibor.xml</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="49" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>33</v>
+        <v>#NUM!</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\UsdLibor.xml</v>
       </c>
       <c r="I5" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -1417,7 +1419,7 @@
       <c r="E6" s="59"/>
       <c r="F6" s="50" t="str">
         <f>_xll.qlEonia(C6,Currency&amp;$D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FedFund2#0002</v>
+        <v>FedFund2#0001</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="47" t="str">
@@ -1443,11 +1445,11 @@
       </c>
       <c r="F7" s="50" t="str">
         <f>_xll.qlEonia(C7,Currency&amp;$D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FedFund#0002</v>
+        <v>FedFund#0001</v>
       </c>
       <c r="G7" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E7&amp;"LastFixing_Quote",F7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FedFundLastFixing_Quote#0002</v>
+        <v>FedFundLastFixing_Quote#0001</v>
       </c>
       <c r="H7" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1473,11 +1475,11 @@
       </c>
       <c r="F8" s="50" t="str">
         <f>_xll.qlLibor($E8,Currency,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSW#0002</v>
+        <v>UsdLiborSW#0001</v>
       </c>
       <c r="G8" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E8&amp;"LastFixing_Quote",F8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSWLastFixing_Quote#0002</v>
+        <v>UsdLiborSWLastFixing_Quote#0001</v>
       </c>
       <c r="H8" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1503,11 +1505,11 @@
       </c>
       <c r="F9" s="50" t="str">
         <f>_xll.qlLibor($E9,Currency,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor2W#0002</v>
+        <v>UsdLibor2W#0001</v>
       </c>
       <c r="G9" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E9&amp;"LastFixing_Quote",F9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor2WLastFixing_Quote#0002</v>
+        <v>UsdLibor2WLastFixing_Quote#0001</v>
       </c>
       <c r="H9" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1533,11 +1535,11 @@
       </c>
       <c r="F10" s="50" t="str">
         <f>_xll.qlLibor($E10,Currency,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor3W#0002</v>
+        <v>UsdLibor3W#0001</v>
       </c>
       <c r="G10" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E10&amp;"LastFixing_Quote",F10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor3WLastFixing_Quote#0002</v>
+        <v>UsdLibor3WLastFixing_Quote#0001</v>
       </c>
       <c r="H10" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1563,11 +1565,11 @@
       </c>
       <c r="F11" s="50" t="str">
         <f>_xll.qlLibor($E11,Currency,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor1M#0002</v>
+        <v>UsdLibor1M#0001</v>
       </c>
       <c r="G11" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E11&amp;"LastFixing_Quote",F11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor1MLastFixing_Quote#0002</v>
+        <v>UsdLibor1MLastFixing_Quote#0001</v>
       </c>
       <c r="H11" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1593,11 +1595,11 @@
       </c>
       <c r="F12" s="50" t="str">
         <f>_xll.qlLibor($E12,Currency,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor2M#0002</v>
+        <v>UsdLibor2M#0001</v>
       </c>
       <c r="G12" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E12&amp;"LastFixing_Quote",F12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor2MLastFixing_Quote#0002</v>
+        <v>UsdLibor2MLastFixing_Quote#0001</v>
       </c>
       <c r="H12" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1623,11 +1625,11 @@
       </c>
       <c r="F13" s="50" t="str">
         <f>_xll.qlLibor($E13,Currency,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor3M#0002</v>
+        <v>UsdLibor3M#0001</v>
       </c>
       <c r="G13" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E13&amp;"LastFixing_Quote",F13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor3MLastFixing_Quote#0003</v>
+        <v>UsdLibor3MLastFixing_Quote#0001</v>
       </c>
       <c r="H13" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1653,11 +1655,11 @@
       </c>
       <c r="F14" s="50" t="str">
         <f>_xll.qlLibor($E14,Currency,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor4M#0002</v>
+        <v>UsdLibor4M#0001</v>
       </c>
       <c r="G14" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E14&amp;"LastFixing_Quote",F14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor4MLastFixing_Quote#0002</v>
+        <v>UsdLibor4MLastFixing_Quote#0001</v>
       </c>
       <c r="H14" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1683,11 +1685,11 @@
       </c>
       <c r="F15" s="50" t="str">
         <f>_xll.qlLibor($E15,Currency,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor5M#0002</v>
+        <v>UsdLibor5M#0001</v>
       </c>
       <c r="G15" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E15&amp;"LastFixing_Quote",F15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor5MLastFixing_Quote#0002</v>
+        <v>UsdLibor5MLastFixing_Quote#0001</v>
       </c>
       <c r="H15" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1713,11 +1715,11 @@
       </c>
       <c r="F16" s="50" t="str">
         <f>_xll.qlLibor($E16,Currency,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor6M#0002</v>
+        <v>UsdLibor6M#0001</v>
       </c>
       <c r="G16" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E16&amp;"LastFixing_Quote",F16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor6MLastFixing_Quote#0002</v>
+        <v>UsdLibor6MLastFixing_Quote#0001</v>
       </c>
       <c r="H16" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1743,11 +1745,11 @@
       </c>
       <c r="F17" s="50" t="str">
         <f>_xll.qlLibor($E17,Currency,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor7M#0002</v>
+        <v>UsdLibor7M#0001</v>
       </c>
       <c r="G17" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E17&amp;"LastFixing_Quote",F17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor7MLastFixing_Quote#0002</v>
+        <v>UsdLibor7MLastFixing_Quote#0001</v>
       </c>
       <c r="H17" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1773,11 +1775,11 @@
       </c>
       <c r="F18" s="50" t="str">
         <f>_xll.qlLibor($E18,Currency,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor8M#0002</v>
+        <v>UsdLibor8M#0001</v>
       </c>
       <c r="G18" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E18&amp;"LastFixing_Quote",F18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor8MLastFixing_Quote#0002</v>
+        <v>UsdLibor8MLastFixing_Quote#0001</v>
       </c>
       <c r="H18" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1803,11 +1805,11 @@
       </c>
       <c r="F19" s="50" t="str">
         <f>_xll.qlLibor($E19,Currency,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor9M#0002</v>
+        <v>UsdLibor9M#0001</v>
       </c>
       <c r="G19" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E19&amp;"LastFixing_Quote",F19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor9MLastFixing_Quote#0002</v>
+        <v>UsdLibor9MLastFixing_Quote#0001</v>
       </c>
       <c r="H19" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1833,11 +1835,11 @@
       </c>
       <c r="F20" s="50" t="str">
         <f>_xll.qlLibor($E20,Currency,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor10M#0002</v>
+        <v>UsdLibor10M#0001</v>
       </c>
       <c r="G20" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E20&amp;"LastFixing_Quote",F20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor10MLastFixing_Quote#0002</v>
+        <v>UsdLibor10MLastFixing_Quote#0001</v>
       </c>
       <c r="H20" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -1863,11 +1865,11 @@
       </c>
       <c r="F21" s="50" t="str">
         <f>_xll.qlLibor($E21,Currency,$C21,Currency&amp;$D21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor11M#0002</v>
+        <v>UsdLibor11M#0001</v>
       </c>
       <c r="G21" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E21&amp;"LastFixing_Quote",F21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor11MLastFixing_Quote#0002</v>
+        <v>UsdLibor11MLastFixing_Quote#0001</v>
       </c>
       <c r="H21" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -1893,11 +1895,11 @@
       </c>
       <c r="F22" s="50" t="str">
         <f>_xll.qlLibor($E22,Currency,$C22,Currency&amp;$D22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor1Y#0002</v>
+        <v>UsdLibor1Y#0001</v>
       </c>
       <c r="G22" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E22&amp;"LastFixing_Quote",F22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor1YLastFixing_Quote#0002</v>
+        <v>UsdLibor1YLastFixing_Quote#0001</v>
       </c>
       <c r="H22" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -2006,13 +2008,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>UsdLiborSwapIsdaFixAm.xml</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="G6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\UsdLiborSwapIsdaFixAm.xml</v>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -2030,7 +2032,7 @@
       </c>
       <c r="F7" s="39" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm1Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm1Y#0001</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2052,7 +2054,7 @@
       </c>
       <c r="F8" s="39" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm2Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm2Y#0001</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2074,7 +2076,7 @@
       </c>
       <c r="F9" s="39" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm3Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm3Y#0001</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -2096,7 +2098,7 @@
       </c>
       <c r="F10" s="39" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm4Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm4Y#0001</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -2118,7 +2120,7 @@
       </c>
       <c r="F11" s="39" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm5Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm5Y#0001</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -2140,7 +2142,7 @@
       </c>
       <c r="F12" s="39" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm6Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm6Y#0001</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -2162,7 +2164,7 @@
       </c>
       <c r="F13" s="39" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm7Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm7Y#0001</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -2184,7 +2186,7 @@
       </c>
       <c r="F14" s="39" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm8Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm8Y#0001</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -2206,7 +2208,7 @@
       </c>
       <c r="F15" s="39" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm9Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm9Y#0001</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -2228,7 +2230,7 @@
       </c>
       <c r="F16" s="39" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm10Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm10Y#0001</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -2250,7 +2252,7 @@
       </c>
       <c r="F17" s="39" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm11Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm11Y#0001</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -2272,7 +2274,7 @@
       </c>
       <c r="F18" s="39" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm12Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm12Y#0001</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -2294,7 +2296,7 @@
       </c>
       <c r="F19" s="39" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm13Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm13Y#0001</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -2316,7 +2318,7 @@
       </c>
       <c r="F20" s="39" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm14Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm14Y#0001</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -2338,7 +2340,7 @@
       </c>
       <c r="F21" s="39" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm15Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm15Y#0001</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -2360,7 +2362,7 @@
       </c>
       <c r="F22" s="39" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm16Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm16Y#0001</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -2382,7 +2384,7 @@
       </c>
       <c r="F23" s="39" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm17Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm17Y#0001</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -2404,7 +2406,7 @@
       </c>
       <c r="F24" s="39" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm18Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm18Y#0001</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -2426,7 +2428,7 @@
       </c>
       <c r="F25" s="39" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm19Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm19Y#0001</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -2448,7 +2450,7 @@
       </c>
       <c r="F26" s="39" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm20Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm20Y#0001</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -2470,7 +2472,7 @@
       </c>
       <c r="F27" s="39" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm21Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm21Y#0001</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -2492,7 +2494,7 @@
       </c>
       <c r="F28" s="39" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm22Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm22Y#0001</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -2514,7 +2516,7 @@
       </c>
       <c r="F29" s="39" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm23Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm23Y#0001</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -2536,7 +2538,7 @@
       </c>
       <c r="F30" s="39" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm24Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm24Y#0001</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -2558,7 +2560,7 @@
       </c>
       <c r="F31" s="39" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm25Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm25Y#0001</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -2580,7 +2582,7 @@
       </c>
       <c r="F32" s="39" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm26Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm26Y#0001</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -2602,7 +2604,7 @@
       </c>
       <c r="F33" s="39" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm27Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm27Y#0001</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -2624,7 +2626,7 @@
       </c>
       <c r="F34" s="39" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm28Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm28Y#0001</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -2646,7 +2648,7 @@
       </c>
       <c r="F35" s="39" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm29Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm29Y#0001</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -2668,7 +2670,7 @@
       </c>
       <c r="F36" s="39" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm30Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm30Y#0001</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -2690,7 +2692,7 @@
       </c>
       <c r="F37" s="39" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm31Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm31Y#0001</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -2712,7 +2714,7 @@
       </c>
       <c r="F38" s="39" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm32Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm32Y#0001</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -2734,7 +2736,7 @@
       </c>
       <c r="F39" s="39" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm33Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm33Y#0001</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -2756,7 +2758,7 @@
       </c>
       <c r="F40" s="39" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm34Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm34Y#0001</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -2778,7 +2780,7 @@
       </c>
       <c r="F41" s="39" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm35Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm35Y#0001</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -2800,7 +2802,7 @@
       </c>
       <c r="F42" s="39" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm36Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm36Y#0001</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -2822,7 +2824,7 @@
       </c>
       <c r="F43" s="39" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm37Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm37Y#0001</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -2844,7 +2846,7 @@
       </c>
       <c r="F44" s="39" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm38Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm38Y#0001</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -2866,7 +2868,7 @@
       </c>
       <c r="F45" s="39" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm39Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm39Y#0001</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -2888,7 +2890,7 @@
       </c>
       <c r="F46" s="39" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm40Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm40Y#0001</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -2910,7 +2912,7 @@
       </c>
       <c r="F47" s="39" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm41Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm41Y#0001</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -2932,7 +2934,7 @@
       </c>
       <c r="F48" s="39" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm42Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm42Y#0001</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -2954,7 +2956,7 @@
       </c>
       <c r="F49" s="39" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm43Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm43Y#0001</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -2976,7 +2978,7 @@
       </c>
       <c r="F50" s="39" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm44Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm44Y#0001</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -2998,7 +3000,7 @@
       </c>
       <c r="F51" s="39" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm45Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm45Y#0001</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -3020,7 +3022,7 @@
       </c>
       <c r="F52" s="39" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm46Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm46Y#0001</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -3042,7 +3044,7 @@
       </c>
       <c r="F53" s="39" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm47Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm47Y#0001</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -3064,7 +3066,7 @@
       </c>
       <c r="F54" s="39" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm48Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm48Y#0001</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -3086,7 +3088,7 @@
       </c>
       <c r="F55" s="39" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm49Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm49Y#0001</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -3108,7 +3110,7 @@
       </c>
       <c r="F56" s="39" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm50Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm50Y#0001</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -3130,7 +3132,7 @@
       </c>
       <c r="F57" s="39" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm51Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm51Y#0001</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -3152,7 +3154,7 @@
       </c>
       <c r="F58" s="39" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm52Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm52Y#0001</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -3174,7 +3176,7 @@
       </c>
       <c r="F59" s="39" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm53Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm53Y#0001</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -3196,7 +3198,7 @@
       </c>
       <c r="F60" s="39" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm54Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm54Y#0001</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -3218,7 +3220,7 @@
       </c>
       <c r="F61" s="39" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm55Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm55Y#0001</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -3240,7 +3242,7 @@
       </c>
       <c r="F62" s="39" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm56Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm56Y#0001</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -3262,7 +3264,7 @@
       </c>
       <c r="F63" s="39" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm57Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm57Y#0001</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -3284,7 +3286,7 @@
       </c>
       <c r="F64" s="39" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm58Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm58Y#0001</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -3306,7 +3308,7 @@
       </c>
       <c r="F65" s="39" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm59Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm59Y#0001</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -3328,7 +3330,7 @@
       </c>
       <c r="F66" s="39" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm60Y#0002</v>
+        <v>UsdLiborSwapIsdaFixAm60Y#0001</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -3431,13 +3433,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>UsdLiborSwapIsdaFixPm.xml</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="G6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\UsdLiborSwapIsdaFixPm.xml</v>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -3455,7 +3457,7 @@
       </c>
       <c r="F7" s="39" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm1Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm1Y#0001</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -3477,7 +3479,7 @@
       </c>
       <c r="F8" s="39" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm2Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm2Y#0001</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -3499,7 +3501,7 @@
       </c>
       <c r="F9" s="39" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm3Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm3Y#0001</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -3521,7 +3523,7 @@
       </c>
       <c r="F10" s="39" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm4Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm4Y#0001</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -3543,7 +3545,7 @@
       </c>
       <c r="F11" s="39" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm5Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm5Y#0001</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -3565,7 +3567,7 @@
       </c>
       <c r="F12" s="39" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm6Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm6Y#0001</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3587,7 +3589,7 @@
       </c>
       <c r="F13" s="39" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm7Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm7Y#0001</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -3609,7 +3611,7 @@
       </c>
       <c r="F14" s="39" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm8Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm8Y#0001</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -3631,7 +3633,7 @@
       </c>
       <c r="F15" s="39" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm9Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm9Y#0001</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -3653,7 +3655,7 @@
       </c>
       <c r="F16" s="39" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm10Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm10Y#0001</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -3675,7 +3677,7 @@
       </c>
       <c r="F17" s="39" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm11Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm11Y#0001</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -3697,7 +3699,7 @@
       </c>
       <c r="F18" s="39" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm12Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm12Y#0001</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -3719,7 +3721,7 @@
       </c>
       <c r="F19" s="39" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm13Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm13Y#0001</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -3741,7 +3743,7 @@
       </c>
       <c r="F20" s="39" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm14Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm14Y#0001</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -3763,7 +3765,7 @@
       </c>
       <c r="F21" s="39" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm15Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm15Y#0001</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -3785,7 +3787,7 @@
       </c>
       <c r="F22" s="39" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm16Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm16Y#0001</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -3807,7 +3809,7 @@
       </c>
       <c r="F23" s="39" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm17Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm17Y#0001</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -3829,7 +3831,7 @@
       </c>
       <c r="F24" s="39" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm18Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm18Y#0001</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -3851,7 +3853,7 @@
       </c>
       <c r="F25" s="39" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm19Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm19Y#0001</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -3873,7 +3875,7 @@
       </c>
       <c r="F26" s="39" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm20Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm20Y#0001</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -3895,7 +3897,7 @@
       </c>
       <c r="F27" s="39" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm21Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm21Y#0001</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -3917,7 +3919,7 @@
       </c>
       <c r="F28" s="39" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm22Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm22Y#0001</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -3939,7 +3941,7 @@
       </c>
       <c r="F29" s="39" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm23Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm23Y#0001</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -3961,7 +3963,7 @@
       </c>
       <c r="F30" s="39" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm24Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm24Y#0001</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -3983,7 +3985,7 @@
       </c>
       <c r="F31" s="39" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm25Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm25Y#0001</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -4005,7 +4007,7 @@
       </c>
       <c r="F32" s="39" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm26Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm26Y#0001</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -4027,7 +4029,7 @@
       </c>
       <c r="F33" s="39" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm27Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm27Y#0001</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -4049,7 +4051,7 @@
       </c>
       <c r="F34" s="39" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm28Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm28Y#0001</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -4071,7 +4073,7 @@
       </c>
       <c r="F35" s="39" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm29Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm29Y#0001</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -4093,7 +4095,7 @@
       </c>
       <c r="F36" s="39" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm30Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm30Y#0001</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -4115,7 +4117,7 @@
       </c>
       <c r="F37" s="39" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm31Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm31Y#0001</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -4137,7 +4139,7 @@
       </c>
       <c r="F38" s="39" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm32Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm32Y#0001</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -4159,7 +4161,7 @@
       </c>
       <c r="F39" s="39" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm33Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm33Y#0001</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -4181,7 +4183,7 @@
       </c>
       <c r="F40" s="39" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm34Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm34Y#0001</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -4203,7 +4205,7 @@
       </c>
       <c r="F41" s="39" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm35Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm35Y#0001</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -4225,7 +4227,7 @@
       </c>
       <c r="F42" s="39" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm36Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm36Y#0001</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -4247,7 +4249,7 @@
       </c>
       <c r="F43" s="39" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm37Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm37Y#0001</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -4269,7 +4271,7 @@
       </c>
       <c r="F44" s="39" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm38Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm38Y#0001</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -4291,7 +4293,7 @@
       </c>
       <c r="F45" s="39" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm39Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm39Y#0001</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -4313,7 +4315,7 @@
       </c>
       <c r="F46" s="39" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm40Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm40Y#0001</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -4335,7 +4337,7 @@
       </c>
       <c r="F47" s="39" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm41Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm41Y#0001</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -4357,7 +4359,7 @@
       </c>
       <c r="F48" s="39" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm42Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm42Y#0001</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -4379,7 +4381,7 @@
       </c>
       <c r="F49" s="39" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm43Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm43Y#0001</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -4401,7 +4403,7 @@
       </c>
       <c r="F50" s="39" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm44Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm44Y#0001</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -4423,7 +4425,7 @@
       </c>
       <c r="F51" s="39" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm45Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm45Y#0001</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -4445,7 +4447,7 @@
       </c>
       <c r="F52" s="39" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm46Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm46Y#0001</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -4467,7 +4469,7 @@
       </c>
       <c r="F53" s="39" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm47Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm47Y#0001</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -4489,7 +4491,7 @@
       </c>
       <c r="F54" s="39" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm48Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm48Y#0001</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -4511,7 +4513,7 @@
       </c>
       <c r="F55" s="39" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm49Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm49Y#0001</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -4533,7 +4535,7 @@
       </c>
       <c r="F56" s="39" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm50Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm50Y#0001</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -4555,7 +4557,7 @@
       </c>
       <c r="F57" s="39" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm51Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm51Y#0001</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -4577,7 +4579,7 @@
       </c>
       <c r="F58" s="39" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm52Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm52Y#0001</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -4599,7 +4601,7 @@
       </c>
       <c r="F59" s="39" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm53Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm53Y#0001</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -4621,7 +4623,7 @@
       </c>
       <c r="F60" s="39" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm54Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm54Y#0001</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -4643,7 +4645,7 @@
       </c>
       <c r="F61" s="39" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm55Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm55Y#0001</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -4665,7 +4667,7 @@
       </c>
       <c r="F62" s="39" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm56Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm56Y#0001</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -4687,7 +4689,7 @@
       </c>
       <c r="F63" s="39" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm57Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm57Y#0001</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -4709,7 +4711,7 @@
       </c>
       <c r="F64" s="39" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm58Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm58Y#0001</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -4731,7 +4733,7 @@
       </c>
       <c r="F65" s="39" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm59Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm59Y#0001</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -4753,7 +4755,7 @@
       </c>
       <c r="F66" s="39" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm60Y#0002</v>
+        <v>UsdLiborSwapIsdaFixPm60Y#0001</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -4842,10 +4844,10 @@
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="62" t="s">
         <v>109</v>
       </c>
       <c r="G5" s="32"/>
@@ -4855,10 +4857,10 @@
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="61" t="s">
         <v>105</v>
       </c>
       <c r="G6" s="32"/>
@@ -4868,10 +4870,10 @@
       <c r="B7" s="31"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="61">
         <f>TYPE(Libor!F13)</f>
         <v>2</v>
       </c>
@@ -4897,13 +4899,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>UsdLiborSwapForBasisCalc.xml</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F10:F69,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
+        <v>#NUM!</v>
       </c>
       <c r="G9" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(F9)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F9)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\UsdLiborSwapForBasisCalc.xml</v>
       </c>
       <c r="H9" s="35"/>
     </row>
@@ -4921,7 +4923,7 @@
       </c>
       <c r="F10" s="39" t="str">
         <f>_xll.qlSwapIndex($E10,FixingType,C10,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc1Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc1Y#0001</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -4943,7 +4945,7 @@
       </c>
       <c r="F11" s="39" t="str">
         <f>_xll.qlSwapIndex($E11,FixingType,C11,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc2Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc2Y#0001</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -4965,7 +4967,7 @@
       </c>
       <c r="F12" s="39" t="str">
         <f>_xll.qlSwapIndex($E12,FixingType,C12,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc3Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc3Y#0001</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -4987,7 +4989,7 @@
       </c>
       <c r="F13" s="39" t="str">
         <f>_xll.qlSwapIndex($E13,FixingType,C13,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc4Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc4Y#0001</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -5009,7 +5011,7 @@
       </c>
       <c r="F14" s="39" t="str">
         <f>_xll.qlSwapIndex($E14,FixingType,C14,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc5Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc5Y#0001</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -5031,7 +5033,7 @@
       </c>
       <c r="F15" s="39" t="str">
         <f>_xll.qlSwapIndex($E15,FixingType,C15,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc6Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc6Y#0001</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -5053,7 +5055,7 @@
       </c>
       <c r="F16" s="39" t="str">
         <f>_xll.qlSwapIndex($E16,FixingType,C16,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc7Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc7Y#0001</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -5075,7 +5077,7 @@
       </c>
       <c r="F17" s="39" t="str">
         <f>_xll.qlSwapIndex($E17,FixingType,C17,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc8Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc8Y#0001</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -5097,7 +5099,7 @@
       </c>
       <c r="F18" s="39" t="str">
         <f>_xll.qlSwapIndex($E18,FixingType,C18,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc9Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc9Y#0001</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -5119,7 +5121,7 @@
       </c>
       <c r="F19" s="39" t="str">
         <f>_xll.qlSwapIndex($E19,FixingType,C19,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc10Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc10Y#0001</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -5141,7 +5143,7 @@
       </c>
       <c r="F20" s="39" t="str">
         <f>_xll.qlSwapIndex($E20,FixingType,C20,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc11Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc11Y#0001</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -5163,7 +5165,7 @@
       </c>
       <c r="F21" s="39" t="str">
         <f>_xll.qlSwapIndex($E21,FixingType,C21,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc12Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc12Y#0001</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -5185,7 +5187,7 @@
       </c>
       <c r="F22" s="39" t="str">
         <f>_xll.qlSwapIndex($E22,FixingType,C22,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc13Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc13Y#0001</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -5207,7 +5209,7 @@
       </c>
       <c r="F23" s="39" t="str">
         <f>_xll.qlSwapIndex($E23,FixingType,C23,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc14Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc14Y#0001</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -5229,7 +5231,7 @@
       </c>
       <c r="F24" s="39" t="str">
         <f>_xll.qlSwapIndex($E24,FixingType,C24,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc15Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc15Y#0001</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -5251,7 +5253,7 @@
       </c>
       <c r="F25" s="39" t="str">
         <f>_xll.qlSwapIndex($E25,FixingType,C25,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc16Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc16Y#0001</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -5273,7 +5275,7 @@
       </c>
       <c r="F26" s="39" t="str">
         <f>_xll.qlSwapIndex($E26,FixingType,C26,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc17Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc17Y#0001</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -5295,7 +5297,7 @@
       </c>
       <c r="F27" s="39" t="str">
         <f>_xll.qlSwapIndex($E27,FixingType,C27,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc18Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc18Y#0001</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -5317,7 +5319,7 @@
       </c>
       <c r="F28" s="39" t="str">
         <f>_xll.qlSwapIndex($E28,FixingType,C28,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc19Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc19Y#0001</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -5339,7 +5341,7 @@
       </c>
       <c r="F29" s="39" t="str">
         <f>_xll.qlSwapIndex($E29,FixingType,C29,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc20Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc20Y#0001</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -5361,7 +5363,7 @@
       </c>
       <c r="F30" s="39" t="str">
         <f>_xll.qlSwapIndex($E30,FixingType,C30,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc21Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc21Y#0001</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -5383,7 +5385,7 @@
       </c>
       <c r="F31" s="39" t="str">
         <f>_xll.qlSwapIndex($E31,FixingType,C31,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc22Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc22Y#0001</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -5405,7 +5407,7 @@
       </c>
       <c r="F32" s="39" t="str">
         <f>_xll.qlSwapIndex($E32,FixingType,C32,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc23Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc23Y#0001</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -5427,7 +5429,7 @@
       </c>
       <c r="F33" s="39" t="str">
         <f>_xll.qlSwapIndex($E33,FixingType,C33,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc24Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc24Y#0001</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -5449,7 +5451,7 @@
       </c>
       <c r="F34" s="39" t="str">
         <f>_xll.qlSwapIndex($E34,FixingType,C34,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc25Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc25Y#0001</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -5471,7 +5473,7 @@
       </c>
       <c r="F35" s="39" t="str">
         <f>_xll.qlSwapIndex($E35,FixingType,C35,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc26Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc26Y#0001</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -5493,7 +5495,7 @@
       </c>
       <c r="F36" s="39" t="str">
         <f>_xll.qlSwapIndex($E36,FixingType,C36,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc27Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc27Y#0001</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -5515,7 +5517,7 @@
       </c>
       <c r="F37" s="39" t="str">
         <f>_xll.qlSwapIndex($E37,FixingType,C37,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc28Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc28Y#0001</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -5537,7 +5539,7 @@
       </c>
       <c r="F38" s="39" t="str">
         <f>_xll.qlSwapIndex($E38,FixingType,C38,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc29Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc29Y#0001</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -5559,7 +5561,7 @@
       </c>
       <c r="F39" s="39" t="str">
         <f>_xll.qlSwapIndex($E39,FixingType,C39,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc30Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc30Y#0001</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -5581,7 +5583,7 @@
       </c>
       <c r="F40" s="39" t="str">
         <f>_xll.qlSwapIndex($E40,FixingType,C40,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc31Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc31Y#0001</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -5603,7 +5605,7 @@
       </c>
       <c r="F41" s="39" t="str">
         <f>_xll.qlSwapIndex($E41,FixingType,C41,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc32Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc32Y#0001</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -5625,7 +5627,7 @@
       </c>
       <c r="F42" s="39" t="str">
         <f>_xll.qlSwapIndex($E42,FixingType,C42,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc33Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc33Y#0001</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -5647,7 +5649,7 @@
       </c>
       <c r="F43" s="39" t="str">
         <f>_xll.qlSwapIndex($E43,FixingType,C43,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc34Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc34Y#0001</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -5669,7 +5671,7 @@
       </c>
       <c r="F44" s="39" t="str">
         <f>_xll.qlSwapIndex($E44,FixingType,C44,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc35Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc35Y#0001</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -5691,7 +5693,7 @@
       </c>
       <c r="F45" s="39" t="str">
         <f>_xll.qlSwapIndex($E45,FixingType,C45,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc36Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc36Y#0001</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -5713,7 +5715,7 @@
       </c>
       <c r="F46" s="39" t="str">
         <f>_xll.qlSwapIndex($E46,FixingType,C46,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc37Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc37Y#0001</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -5735,7 +5737,7 @@
       </c>
       <c r="F47" s="39" t="str">
         <f>_xll.qlSwapIndex($E47,FixingType,C47,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc38Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc38Y#0001</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -5757,7 +5759,7 @@
       </c>
       <c r="F48" s="39" t="str">
         <f>_xll.qlSwapIndex($E48,FixingType,C48,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc39Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc39Y#0001</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -5779,7 +5781,7 @@
       </c>
       <c r="F49" s="39" t="str">
         <f>_xll.qlSwapIndex($E49,FixingType,C49,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc40Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc40Y#0001</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -5801,7 +5803,7 @@
       </c>
       <c r="F50" s="39" t="str">
         <f>_xll.qlSwapIndex($E50,FixingType,C50,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc41Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc41Y#0001</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -5823,7 +5825,7 @@
       </c>
       <c r="F51" s="39" t="str">
         <f>_xll.qlSwapIndex($E51,FixingType,C51,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc42Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc42Y#0001</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -5845,7 +5847,7 @@
       </c>
       <c r="F52" s="39" t="str">
         <f>_xll.qlSwapIndex($E52,FixingType,C52,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc43Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc43Y#0001</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -5867,7 +5869,7 @@
       </c>
       <c r="F53" s="39" t="str">
         <f>_xll.qlSwapIndex($E53,FixingType,C53,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc44Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc44Y#0001</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -5889,7 +5891,7 @@
       </c>
       <c r="F54" s="39" t="str">
         <f>_xll.qlSwapIndex($E54,FixingType,C54,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc45Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc45Y#0001</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -5911,7 +5913,7 @@
       </c>
       <c r="F55" s="39" t="str">
         <f>_xll.qlSwapIndex($E55,FixingType,C55,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc46Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc46Y#0001</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -5933,7 +5935,7 @@
       </c>
       <c r="F56" s="39" t="str">
         <f>_xll.qlSwapIndex($E56,FixingType,C56,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc47Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc47Y#0001</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -5955,7 +5957,7 @@
       </c>
       <c r="F57" s="39" t="str">
         <f>_xll.qlSwapIndex($E57,FixingType,C57,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc48Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc48Y#0001</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -5977,7 +5979,7 @@
       </c>
       <c r="F58" s="39" t="str">
         <f>_xll.qlSwapIndex($E58,FixingType,C58,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc49Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc49Y#0001</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -5999,7 +6001,7 @@
       </c>
       <c r="F59" s="39" t="str">
         <f>_xll.qlSwapIndex($E59,FixingType,C59,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc50Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc50Y#0001</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -6021,7 +6023,7 @@
       </c>
       <c r="F60" s="39" t="str">
         <f>_xll.qlSwapIndex($E60,FixingType,C60,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc51Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc51Y#0001</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -6043,7 +6045,7 @@
       </c>
       <c r="F61" s="39" t="str">
         <f>_xll.qlSwapIndex($E61,FixingType,C61,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc52Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc52Y#0001</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -6065,7 +6067,7 @@
       </c>
       <c r="F62" s="39" t="str">
         <f>_xll.qlSwapIndex($E62,FixingType,C62,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc53Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc53Y#0001</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -6087,7 +6089,7 @@
       </c>
       <c r="F63" s="39" t="str">
         <f>_xll.qlSwapIndex($E63,FixingType,C63,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc54Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc54Y#0001</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -6109,7 +6111,7 @@
       </c>
       <c r="F64" s="39" t="str">
         <f>_xll.qlSwapIndex($E64,FixingType,C64,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc55Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc55Y#0001</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -6131,7 +6133,7 @@
       </c>
       <c r="F65" s="39" t="str">
         <f>_xll.qlSwapIndex($E65,FixingType,C65,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc56Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc56Y#0001</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -6153,7 +6155,7 @@
       </c>
       <c r="F66" s="39" t="str">
         <f>_xll.qlSwapIndex($E66,FixingType,C66,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc57Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc57Y#0001</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -6175,7 +6177,7 @@
       </c>
       <c r="F67" s="39" t="str">
         <f>_xll.qlSwapIndex($E67,FixingType,C67,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc58Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc58Y#0001</v>
       </c>
       <c r="G67" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -6197,7 +6199,7 @@
       </c>
       <c r="F68" s="39" t="str">
         <f>_xll.qlSwapIndex($E68,FixingType,C68,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc59Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc59Y#0001</v>
       </c>
       <c r="G68" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -6219,7 +6221,7 @@
       </c>
       <c r="F69" s="39" t="str">
         <f>_xll.qlSwapIndex($E69,FixingType,C69,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc60Y#0003</v>
+        <v>UsdLiborSwapForBasisCalc60Y#0001</v>
       </c>
       <c r="G69" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -6322,14 +6324,14 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>UsdLibor-Mx.xml</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="49" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>30</v>
+        <v>#NUM!</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+      <c r="H5" s="47" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I5" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -6395,11 +6397,11 @@
       </c>
       <c r="F8" s="50" t="str">
         <f>_xll.qlLibor($E8,Currency,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-MxSW#0002</v>
+        <v>UsdLibor-MxSW#0001</v>
       </c>
       <c r="G8" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E8&amp;"LastFixing_Quote",F8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-MxSWLastFixing_Quote#0002</v>
+        <v>UsdLibor-MxSWLastFixing_Quote#0001</v>
       </c>
       <c r="H8" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -6425,11 +6427,11 @@
       </c>
       <c r="F9" s="50" t="str">
         <f>_xll.qlLibor($E9,Currency,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx2W#0002</v>
+        <v>UsdLibor-Mx2W#0001</v>
       </c>
       <c r="G9" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E9&amp;"LastFixing_Quote",F9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx2WLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx2WLastFixing_Quote#0001</v>
       </c>
       <c r="H9" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -6455,11 +6457,11 @@
       </c>
       <c r="F10" s="50" t="str">
         <f>_xll.qlLibor($E10,Currency,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx3W#0002</v>
+        <v>UsdLibor-Mx3W#0001</v>
       </c>
       <c r="G10" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E10&amp;"LastFixing_Quote",F10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx3WLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx3WLastFixing_Quote#0001</v>
       </c>
       <c r="H10" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -6485,11 +6487,11 @@
       </c>
       <c r="F11" s="50" t="str">
         <f>_xll.qlLibor($E11,Currency,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx1M#0002</v>
+        <v>UsdLibor-Mx1M#0001</v>
       </c>
       <c r="G11" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E11&amp;"LastFixing_Quote",F11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx1MLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx1MLastFixing_Quote#0001</v>
       </c>
       <c r="H11" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -6515,11 +6517,11 @@
       </c>
       <c r="F12" s="50" t="str">
         <f>_xll.qlLibor($E12,Currency,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx2M#0002</v>
+        <v>UsdLibor-Mx2M#0001</v>
       </c>
       <c r="G12" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E12&amp;"LastFixing_Quote",F12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx2MLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx2MLastFixing_Quote#0001</v>
       </c>
       <c r="H12" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -6545,11 +6547,11 @@
       </c>
       <c r="F13" s="50" t="str">
         <f>_xll.qlLibor($E13,Currency,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx3M#0002</v>
+        <v>UsdLibor-Mx3M#0001</v>
       </c>
       <c r="G13" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E13&amp;"LastFixing_Quote",F13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx3MLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx3MLastFixing_Quote#0001</v>
       </c>
       <c r="H13" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -6575,11 +6577,11 @@
       </c>
       <c r="F14" s="50" t="str">
         <f>_xll.qlLibor($E14,Currency,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx4M#0002</v>
+        <v>UsdLibor-Mx4M#0001</v>
       </c>
       <c r="G14" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E14&amp;"LastFixing_Quote",F14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx4MLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx4MLastFixing_Quote#0001</v>
       </c>
       <c r="H14" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -6605,11 +6607,11 @@
       </c>
       <c r="F15" s="50" t="str">
         <f>_xll.qlLibor($E15,Currency,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx5M#0002</v>
+        <v>UsdLibor-Mx5M#0001</v>
       </c>
       <c r="G15" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E15&amp;"LastFixing_Quote",F15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx5MLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx5MLastFixing_Quote#0001</v>
       </c>
       <c r="H15" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -6635,11 +6637,11 @@
       </c>
       <c r="F16" s="50" t="str">
         <f>_xll.qlLibor($E16,Currency,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx6M#0002</v>
+        <v>UsdLibor-Mx6M#0001</v>
       </c>
       <c r="G16" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E16&amp;"LastFixing_Quote",F16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx6MLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx6MLastFixing_Quote#0001</v>
       </c>
       <c r="H16" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -6665,11 +6667,11 @@
       </c>
       <c r="F17" s="50" t="str">
         <f>_xll.qlLibor($E17,Currency,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx7M#0002</v>
+        <v>UsdLibor-Mx7M#0001</v>
       </c>
       <c r="G17" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E17&amp;"LastFixing_Quote",F17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx7MLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx7MLastFixing_Quote#0001</v>
       </c>
       <c r="H17" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -6695,11 +6697,11 @@
       </c>
       <c r="F18" s="50" t="str">
         <f>_xll.qlLibor($E18,Currency,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx8M#0002</v>
+        <v>UsdLibor-Mx8M#0001</v>
       </c>
       <c r="G18" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E18&amp;"LastFixing_Quote",F18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx8MLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx8MLastFixing_Quote#0001</v>
       </c>
       <c r="H18" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -6725,11 +6727,11 @@
       </c>
       <c r="F19" s="50" t="str">
         <f>_xll.qlLibor($E19,Currency,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx9M#0002</v>
+        <v>UsdLibor-Mx9M#0001</v>
       </c>
       <c r="G19" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E19&amp;"LastFixing_Quote",F19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx9MLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx9MLastFixing_Quote#0001</v>
       </c>
       <c r="H19" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -6755,11 +6757,11 @@
       </c>
       <c r="F20" s="50" t="str">
         <f>_xll.qlLibor($E20,Currency,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx10M#0002</v>
+        <v>UsdLibor-Mx10M#0001</v>
       </c>
       <c r="G20" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E20&amp;"LastFixing_Quote",F20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx10MLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx10MLastFixing_Quote#0001</v>
       </c>
       <c r="H20" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -6785,11 +6787,11 @@
       </c>
       <c r="F21" s="50" t="str">
         <f>_xll.qlLibor($E21,Currency,$C21,Currency&amp;$D21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx11M#0002</v>
+        <v>UsdLibor-Mx11M#0001</v>
       </c>
       <c r="G21" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E21&amp;"LastFixing_Quote",F21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx11MLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx11MLastFixing_Quote#0001</v>
       </c>
       <c r="H21" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -6815,11 +6817,11 @@
       </c>
       <c r="F22" s="50" t="str">
         <f>_xll.qlLibor($E22,Currency,$C22,Currency&amp;$D22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx1Y#0002</v>
+        <v>UsdLibor-Mx1Y#0001</v>
       </c>
       <c r="G22" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E22&amp;"LastFixing_Quote",F22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx1YLastFixing_Quote#0002</v>
+        <v>UsdLibor-Mx1YLastFixing_Quote#0001</v>
       </c>
       <c r="H22" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -6927,13 +6929,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>UsdLiborSwap-MxIsdaFixAm.xml</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
-      </c>
-      <c r="G6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" s="37" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -6951,7 +6953,7 @@
       </c>
       <c r="F7" s="39" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm1Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm1Y#0001</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -6973,7 +6975,7 @@
       </c>
       <c r="F8" s="39" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm2Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm2Y#0001</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -6995,7 +6997,7 @@
       </c>
       <c r="F9" s="39" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm3Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm3Y#0001</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -7017,7 +7019,7 @@
       </c>
       <c r="F10" s="39" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm4Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm4Y#0001</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -7039,7 +7041,7 @@
       </c>
       <c r="F11" s="39" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm5Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm5Y#0001</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -7061,7 +7063,7 @@
       </c>
       <c r="F12" s="39" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm6Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm6Y#0001</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -7083,7 +7085,7 @@
       </c>
       <c r="F13" s="39" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm7Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm7Y#0001</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -7105,7 +7107,7 @@
       </c>
       <c r="F14" s="39" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm8Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm8Y#0001</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -7127,7 +7129,7 @@
       </c>
       <c r="F15" s="39" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm9Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm9Y#0001</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -7149,7 +7151,7 @@
       </c>
       <c r="F16" s="39" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm10Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm10Y#0001</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -7171,7 +7173,7 @@
       </c>
       <c r="F17" s="39" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm11Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm11Y#0001</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -7193,7 +7195,7 @@
       </c>
       <c r="F18" s="39" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm12Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm12Y#0001</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -7215,7 +7217,7 @@
       </c>
       <c r="F19" s="39" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm13Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm13Y#0001</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -7237,7 +7239,7 @@
       </c>
       <c r="F20" s="39" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm14Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm14Y#0001</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -7259,7 +7261,7 @@
       </c>
       <c r="F21" s="39" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm15Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm15Y#0001</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -7281,7 +7283,7 @@
       </c>
       <c r="F22" s="39" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm16Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm16Y#0001</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -7303,7 +7305,7 @@
       </c>
       <c r="F23" s="39" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm17Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm17Y#0001</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -7325,7 +7327,7 @@
       </c>
       <c r="F24" s="39" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm18Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm18Y#0001</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -7347,7 +7349,7 @@
       </c>
       <c r="F25" s="39" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm19Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm19Y#0001</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -7369,7 +7371,7 @@
       </c>
       <c r="F26" s="39" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm20Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm20Y#0001</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -7391,7 +7393,7 @@
       </c>
       <c r="F27" s="39" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm21Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm21Y#0001</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -7413,7 +7415,7 @@
       </c>
       <c r="F28" s="39" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm22Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm22Y#0001</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -7435,7 +7437,7 @@
       </c>
       <c r="F29" s="39" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm23Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm23Y#0001</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -7457,7 +7459,7 @@
       </c>
       <c r="F30" s="39" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm24Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm24Y#0001</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -7479,7 +7481,7 @@
       </c>
       <c r="F31" s="39" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm25Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm25Y#0001</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -7501,7 +7503,7 @@
       </c>
       <c r="F32" s="39" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm26Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm26Y#0001</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -7523,7 +7525,7 @@
       </c>
       <c r="F33" s="39" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm27Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm27Y#0001</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -7545,7 +7547,7 @@
       </c>
       <c r="F34" s="39" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm28Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm28Y#0001</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -7567,7 +7569,7 @@
       </c>
       <c r="F35" s="39" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm29Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm29Y#0001</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -7589,7 +7591,7 @@
       </c>
       <c r="F36" s="39" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm30Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm30Y#0001</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -7611,7 +7613,7 @@
       </c>
       <c r="F37" s="39" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm31Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm31Y#0001</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -7633,7 +7635,7 @@
       </c>
       <c r="F38" s="39" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm32Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm32Y#0001</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -7655,7 +7657,7 @@
       </c>
       <c r="F39" s="39" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm33Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm33Y#0001</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -7677,7 +7679,7 @@
       </c>
       <c r="F40" s="39" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm34Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm34Y#0001</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -7699,7 +7701,7 @@
       </c>
       <c r="F41" s="39" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm35Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm35Y#0001</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -7721,7 +7723,7 @@
       </c>
       <c r="F42" s="39" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm36Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm36Y#0001</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -7743,7 +7745,7 @@
       </c>
       <c r="F43" s="39" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm37Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm37Y#0001</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -7765,7 +7767,7 @@
       </c>
       <c r="F44" s="39" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm38Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm38Y#0001</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -7787,7 +7789,7 @@
       </c>
       <c r="F45" s="39" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm39Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm39Y#0001</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -7809,7 +7811,7 @@
       </c>
       <c r="F46" s="39" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm40Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm40Y#0001</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -7831,7 +7833,7 @@
       </c>
       <c r="F47" s="39" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm41Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm41Y#0001</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -7853,7 +7855,7 @@
       </c>
       <c r="F48" s="39" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm42Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm42Y#0001</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -7875,7 +7877,7 @@
       </c>
       <c r="F49" s="39" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm43Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm43Y#0001</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -7897,7 +7899,7 @@
       </c>
       <c r="F50" s="39" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm44Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm44Y#0001</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -7919,7 +7921,7 @@
       </c>
       <c r="F51" s="39" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm45Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm45Y#0001</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -7941,7 +7943,7 @@
       </c>
       <c r="F52" s="39" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm46Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm46Y#0001</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -7963,7 +7965,7 @@
       </c>
       <c r="F53" s="39" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm47Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm47Y#0001</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -7985,7 +7987,7 @@
       </c>
       <c r="F54" s="39" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm48Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm48Y#0001</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -8007,7 +8009,7 @@
       </c>
       <c r="F55" s="39" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm49Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm49Y#0001</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -8029,7 +8031,7 @@
       </c>
       <c r="F56" s="39" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm50Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm50Y#0001</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -8051,7 +8053,7 @@
       </c>
       <c r="F57" s="39" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm51Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm51Y#0001</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -8073,7 +8075,7 @@
       </c>
       <c r="F58" s="39" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm52Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm52Y#0001</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -8095,7 +8097,7 @@
       </c>
       <c r="F59" s="39" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm53Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm53Y#0001</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -8117,7 +8119,7 @@
       </c>
       <c r="F60" s="39" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm54Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm54Y#0001</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -8139,7 +8141,7 @@
       </c>
       <c r="F61" s="39" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm55Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm55Y#0001</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -8161,7 +8163,7 @@
       </c>
       <c r="F62" s="39" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm56Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm56Y#0001</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -8183,7 +8185,7 @@
       </c>
       <c r="F63" s="39" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm57Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm57Y#0001</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -8205,7 +8207,7 @@
       </c>
       <c r="F64" s="39" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm58Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm58Y#0001</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -8227,7 +8229,7 @@
       </c>
       <c r="F65" s="39" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm59Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm59Y#0001</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -8249,7 +8251,7 @@
       </c>
       <c r="F66" s="39" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm60Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixAm60Y#0001</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -8352,13 +8354,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>UsdLiborSwap-MxIsdaFixPm.xml</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="34" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>60</v>
-      </c>
-      <c r="G6" s="37" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" s="37" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
+        <v>#NUM!</v>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -8376,7 +8378,7 @@
       </c>
       <c r="F7" s="39" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm1Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm1Y#0001</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -8398,7 +8400,7 @@
       </c>
       <c r="F8" s="39" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm2Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm2Y#0001</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -8420,7 +8422,7 @@
       </c>
       <c r="F9" s="39" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm3Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm3Y#0001</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -8442,7 +8444,7 @@
       </c>
       <c r="F10" s="39" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm4Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm4Y#0001</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -8464,7 +8466,7 @@
       </c>
       <c r="F11" s="39" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm5Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm5Y#0001</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -8486,7 +8488,7 @@
       </c>
       <c r="F12" s="39" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm6Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm6Y#0001</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -8508,7 +8510,7 @@
       </c>
       <c r="F13" s="39" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm7Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm7Y#0001</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -8530,7 +8532,7 @@
       </c>
       <c r="F14" s="39" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm8Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm8Y#0001</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -8552,7 +8554,7 @@
       </c>
       <c r="F15" s="39" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm9Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm9Y#0001</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -8574,7 +8576,7 @@
       </c>
       <c r="F16" s="39" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm10Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm10Y#0001</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -8596,7 +8598,7 @@
       </c>
       <c r="F17" s="39" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm11Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm11Y#0001</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -8618,7 +8620,7 @@
       </c>
       <c r="F18" s="39" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm12Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm12Y#0001</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -8640,7 +8642,7 @@
       </c>
       <c r="F19" s="39" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm13Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm13Y#0001</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -8662,7 +8664,7 @@
       </c>
       <c r="F20" s="39" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm14Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm14Y#0001</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -8684,7 +8686,7 @@
       </c>
       <c r="F21" s="39" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm15Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm15Y#0001</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -8706,7 +8708,7 @@
       </c>
       <c r="F22" s="39" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm16Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm16Y#0001</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -8728,7 +8730,7 @@
       </c>
       <c r="F23" s="39" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm17Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm17Y#0001</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -8750,7 +8752,7 @@
       </c>
       <c r="F24" s="39" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm18Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm18Y#0001</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -8772,7 +8774,7 @@
       </c>
       <c r="F25" s="39" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm19Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm19Y#0001</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -8794,7 +8796,7 @@
       </c>
       <c r="F26" s="39" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm20Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm20Y#0001</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -8816,7 +8818,7 @@
       </c>
       <c r="F27" s="39" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm21Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm21Y#0001</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -8838,7 +8840,7 @@
       </c>
       <c r="F28" s="39" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm22Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm22Y#0001</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -8860,7 +8862,7 @@
       </c>
       <c r="F29" s="39" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm23Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm23Y#0001</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -8882,7 +8884,7 @@
       </c>
       <c r="F30" s="39" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm24Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm24Y#0001</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -8904,7 +8906,7 @@
       </c>
       <c r="F31" s="39" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm25Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm25Y#0001</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -8926,7 +8928,7 @@
       </c>
       <c r="F32" s="39" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm26Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm26Y#0001</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -8948,7 +8950,7 @@
       </c>
       <c r="F33" s="39" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm27Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm27Y#0001</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -8970,7 +8972,7 @@
       </c>
       <c r="F34" s="39" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm28Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm28Y#0001</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -8992,7 +8994,7 @@
       </c>
       <c r="F35" s="39" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm29Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm29Y#0001</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -9014,7 +9016,7 @@
       </c>
       <c r="F36" s="39" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm30Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm30Y#0001</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -9036,7 +9038,7 @@
       </c>
       <c r="F37" s="39" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm31Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm31Y#0001</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -9058,7 +9060,7 @@
       </c>
       <c r="F38" s="39" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm32Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm32Y#0001</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -9080,7 +9082,7 @@
       </c>
       <c r="F39" s="39" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm33Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm33Y#0001</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -9102,7 +9104,7 @@
       </c>
       <c r="F40" s="39" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm34Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm34Y#0001</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -9124,7 +9126,7 @@
       </c>
       <c r="F41" s="39" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm35Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm35Y#0001</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -9146,7 +9148,7 @@
       </c>
       <c r="F42" s="39" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm36Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm36Y#0001</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -9168,7 +9170,7 @@
       </c>
       <c r="F43" s="39" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm37Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm37Y#0001</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -9190,7 +9192,7 @@
       </c>
       <c r="F44" s="39" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm38Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm38Y#0001</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -9212,7 +9214,7 @@
       </c>
       <c r="F45" s="39" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm39Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm39Y#0001</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -9234,7 +9236,7 @@
       </c>
       <c r="F46" s="39" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm40Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm40Y#0001</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -9256,7 +9258,7 @@
       </c>
       <c r="F47" s="39" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm41Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm41Y#0001</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -9278,7 +9280,7 @@
       </c>
       <c r="F48" s="39" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm42Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm42Y#0001</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -9300,7 +9302,7 @@
       </c>
       <c r="F49" s="39" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm43Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm43Y#0001</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -9322,7 +9324,7 @@
       </c>
       <c r="F50" s="39" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm44Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm44Y#0001</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -9344,7 +9346,7 @@
       </c>
       <c r="F51" s="39" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm45Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm45Y#0001</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -9366,7 +9368,7 @@
       </c>
       <c r="F52" s="39" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm46Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm46Y#0001</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -9388,7 +9390,7 @@
       </c>
       <c r="F53" s="39" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm47Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm47Y#0001</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -9410,7 +9412,7 @@
       </c>
       <c r="F54" s="39" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm48Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm48Y#0001</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -9432,7 +9434,7 @@
       </c>
       <c r="F55" s="39" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm49Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm49Y#0001</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -9454,7 +9456,7 @@
       </c>
       <c r="F56" s="39" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm50Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm50Y#0001</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -9476,7 +9478,7 @@
       </c>
       <c r="F57" s="39" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm51Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm51Y#0001</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -9498,7 +9500,7 @@
       </c>
       <c r="F58" s="39" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm52Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm52Y#0001</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -9520,7 +9522,7 @@
       </c>
       <c r="F59" s="39" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm53Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm53Y#0001</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -9542,7 +9544,7 @@
       </c>
       <c r="F60" s="39" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm54Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm54Y#0001</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -9564,7 +9566,7 @@
       </c>
       <c r="F61" s="39" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm55Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm55Y#0001</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -9586,7 +9588,7 @@
       </c>
       <c r="F62" s="39" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm56Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm56Y#0001</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -9608,7 +9610,7 @@
       </c>
       <c r="F63" s="39" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm57Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm57Y#0001</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -9630,7 +9632,7 @@
       </c>
       <c r="F64" s="39" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm58Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm58Y#0001</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -9652,7 +9654,7 @@
       </c>
       <c r="F65" s="39" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm59Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm59Y#0001</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -9674,7 +9676,7 @@
       </c>
       <c r="F66" s="39" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm60Y#0002</v>
+        <v>UsdLiborSwap-MxIsdaFixPm60Y#0001</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/UsdLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/UsdLibor.xlsx
@@ -16,9 +16,6 @@
     <sheet name="LiborSwapIsdaFixAm (2)" sheetId="8" r:id="rId7"/>
     <sheet name="LiborSwapIsdaFixPm (2)" sheetId="9" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$5</definedName>
     <definedName name="Discounting">'General Settings'!$D$11</definedName>
@@ -54,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="112">
   <si>
     <t>Trigger</t>
   </si>
@@ -387,6 +384,9 @@
   </si>
   <si>
     <t>Dependency Trigger</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -852,24 +852,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1257,9 +1239,8 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+      <c r="D9" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1400,7 +1381,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\UsdLibor.xml</v>
+        <v/>
       </c>
       <c r="I5" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -2014,7 +1995,7 @@
       </c>
       <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\UsdLiborSwapIsdaFixAm.xml</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -3439,7 +3420,7 @@
       </c>
       <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\UsdLiborSwapIsdaFixPm.xml</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -4905,7 +4886,7 @@
       </c>
       <c r="G9" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F9)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\UsdLiborSwapForBasisCalc.xml</v>
+        <v/>
       </c>
       <c r="H9" s="35"/>
     </row>
@@ -6329,9 +6310,9 @@
         <v>#NUM!</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="47" t="e">
+      <c r="H5" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="I5" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -6933,9 +6914,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="G6" s="37" t="e">
+      <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -8358,9 +8339,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="G6" s="37" t="e">
+      <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/UsdLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/UsdLibor.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="111">
   <si>
     <t>Trigger</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>Dependency Trigger</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1239,8 +1236,9 @@
       <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>111</v>
+      <c r="D9" s="23" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1375,13 +1373,13 @@
         <v>UsdLibor.xml</v>
       </c>
       <c r="F5" s="49" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="47" t="str">
+      <c r="H5" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="I5" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -1990,12 +1988,12 @@
         <v>UsdLiborSwapIsdaFixAm.xml</v>
       </c>
       <c r="F6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -3415,12 +3413,12 @@
         <v>UsdLiborSwapIsdaFixPm.xml</v>
       </c>
       <c r="F6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -4881,12 +4879,12 @@
         <v>UsdLiborSwapForBasisCalc.xml</v>
       </c>
       <c r="F9" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F10:F69,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F10:F69,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F9)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H9" s="35"/>
     </row>
@@ -6306,13 +6304,13 @@
         <v>UsdLibor-Mx.xml</v>
       </c>
       <c r="F5" s="49" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="47" t="str">
+      <c r="H5" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="I5" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -6911,12 +6909,12 @@
         <v>UsdLiborSwap-MxIsdaFixAm.xml</v>
       </c>
       <c r="F6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -8336,12 +8334,12 @@
         <v>UsdLiborSwap-MxIsdaFixPm.xml</v>
       </c>
       <c r="F6" s="34" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" s="37" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="37" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H6" s="35"/>
     </row>

--- a/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/UsdLibor.xlsx
+++ b/QuantLibXL/Data/XLS/010_StartUp/020_Indexes/UsdLibor.xlsx
@@ -1158,7 +1158,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\010_StartUp\020_Indexes\</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -1372,14 +1372,14 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>UsdLibor.xml</v>
       </c>
-      <c r="F5" s="49" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
+      <c r="F5" s="49">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>33</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="47" t="e">
+      <c r="H5" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="I5" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -1398,7 +1398,7 @@
       <c r="E6" s="59"/>
       <c r="F6" s="50" t="str">
         <f>_xll.qlEonia(C6,Currency&amp;$D6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FedFund2#0001</v>
+        <v>FedFund2#0002</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="47" t="str">
@@ -1424,11 +1424,11 @@
       </c>
       <c r="F7" s="50" t="str">
         <f>_xll.qlEonia(C7,Currency&amp;$D7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FedFund#0001</v>
+        <v>FedFund#0002</v>
       </c>
       <c r="G7" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E7&amp;"LastFixing_Quote",F7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>FedFundLastFixing_Quote#0001</v>
+        <v>FedFundLastFixing_Quote#0002</v>
       </c>
       <c r="H7" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1454,11 +1454,11 @@
       </c>
       <c r="F8" s="50" t="str">
         <f>_xll.qlLibor($E8,Currency,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSW#0001</v>
+        <v>UsdLiborSW#0002</v>
       </c>
       <c r="G8" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E8&amp;"LastFixing_Quote",F8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSWLastFixing_Quote#0001</v>
+        <v>UsdLiborSWLastFixing_Quote#0002</v>
       </c>
       <c r="H8" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1484,11 +1484,11 @@
       </c>
       <c r="F9" s="50" t="str">
         <f>_xll.qlLibor($E9,Currency,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor2W#0001</v>
+        <v>UsdLibor2W#0002</v>
       </c>
       <c r="G9" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E9&amp;"LastFixing_Quote",F9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor2WLastFixing_Quote#0001</v>
+        <v>UsdLibor2WLastFixing_Quote#0002</v>
       </c>
       <c r="H9" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1514,11 +1514,11 @@
       </c>
       <c r="F10" s="50" t="str">
         <f>_xll.qlLibor($E10,Currency,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor3W#0001</v>
+        <v>UsdLibor3W#0002</v>
       </c>
       <c r="G10" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E10&amp;"LastFixing_Quote",F10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor3WLastFixing_Quote#0001</v>
+        <v>UsdLibor3WLastFixing_Quote#0002</v>
       </c>
       <c r="H10" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1544,11 +1544,11 @@
       </c>
       <c r="F11" s="50" t="str">
         <f>_xll.qlLibor($E11,Currency,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor1M#0001</v>
+        <v>UsdLibor1M#0002</v>
       </c>
       <c r="G11" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E11&amp;"LastFixing_Quote",F11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor1MLastFixing_Quote#0001</v>
+        <v>UsdLibor1MLastFixing_Quote#0002</v>
       </c>
       <c r="H11" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1574,11 +1574,11 @@
       </c>
       <c r="F12" s="50" t="str">
         <f>_xll.qlLibor($E12,Currency,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor2M#0001</v>
+        <v>UsdLibor2M#0002</v>
       </c>
       <c r="G12" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E12&amp;"LastFixing_Quote",F12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor2MLastFixing_Quote#0001</v>
+        <v>UsdLibor2MLastFixing_Quote#0002</v>
       </c>
       <c r="H12" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1604,11 +1604,11 @@
       </c>
       <c r="F13" s="50" t="str">
         <f>_xll.qlLibor($E13,Currency,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor3M#0001</v>
+        <v>UsdLibor3M#0002</v>
       </c>
       <c r="G13" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E13&amp;"LastFixing_Quote",F13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor3MLastFixing_Quote#0001</v>
+        <v>UsdLibor3MLastFixing_Quote#0002</v>
       </c>
       <c r="H13" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="F14" s="50" t="str">
         <f>_xll.qlLibor($E14,Currency,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor4M#0001</v>
+        <v>UsdLibor4M#0002</v>
       </c>
       <c r="G14" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E14&amp;"LastFixing_Quote",F14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor4MLastFixing_Quote#0001</v>
+        <v>UsdLibor4MLastFixing_Quote#0002</v>
       </c>
       <c r="H14" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1664,11 +1664,11 @@
       </c>
       <c r="F15" s="50" t="str">
         <f>_xll.qlLibor($E15,Currency,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor5M#0001</v>
+        <v>UsdLibor5M#0002</v>
       </c>
       <c r="G15" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E15&amp;"LastFixing_Quote",F15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor5MLastFixing_Quote#0001</v>
+        <v>UsdLibor5MLastFixing_Quote#0002</v>
       </c>
       <c r="H15" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1694,11 +1694,11 @@
       </c>
       <c r="F16" s="50" t="str">
         <f>_xll.qlLibor($E16,Currency,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor6M#0001</v>
+        <v>UsdLibor6M#0002</v>
       </c>
       <c r="G16" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E16&amp;"LastFixing_Quote",F16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor6MLastFixing_Quote#0001</v>
+        <v>UsdLibor6MLastFixing_Quote#0002</v>
       </c>
       <c r="H16" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1724,11 +1724,11 @@
       </c>
       <c r="F17" s="50" t="str">
         <f>_xll.qlLibor($E17,Currency,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor7M#0001</v>
+        <v>UsdLibor7M#0002</v>
       </c>
       <c r="G17" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E17&amp;"LastFixing_Quote",F17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor7MLastFixing_Quote#0001</v>
+        <v>UsdLibor7MLastFixing_Quote#0002</v>
       </c>
       <c r="H17" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1754,11 +1754,11 @@
       </c>
       <c r="F18" s="50" t="str">
         <f>_xll.qlLibor($E18,Currency,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor8M#0001</v>
+        <v>UsdLibor8M#0002</v>
       </c>
       <c r="G18" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E18&amp;"LastFixing_Quote",F18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor8MLastFixing_Quote#0001</v>
+        <v>UsdLibor8MLastFixing_Quote#0002</v>
       </c>
       <c r="H18" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1784,11 +1784,11 @@
       </c>
       <c r="F19" s="50" t="str">
         <f>_xll.qlLibor($E19,Currency,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor9M#0001</v>
+        <v>UsdLibor9M#0002</v>
       </c>
       <c r="G19" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E19&amp;"LastFixing_Quote",F19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor9MLastFixing_Quote#0001</v>
+        <v>UsdLibor9MLastFixing_Quote#0002</v>
       </c>
       <c r="H19" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="F20" s="50" t="str">
         <f>_xll.qlLibor($E20,Currency,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor10M#0001</v>
+        <v>UsdLibor10M#0002</v>
       </c>
       <c r="G20" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E20&amp;"LastFixing_Quote",F20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor10MLastFixing_Quote#0001</v>
+        <v>UsdLibor10MLastFixing_Quote#0002</v>
       </c>
       <c r="H20" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -1844,11 +1844,11 @@
       </c>
       <c r="F21" s="50" t="str">
         <f>_xll.qlLibor($E21,Currency,$C21,Currency&amp;$D21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor11M#0001</v>
+        <v>UsdLibor11M#0002</v>
       </c>
       <c r="G21" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E21&amp;"LastFixing_Quote",F21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor11MLastFixing_Quote#0001</v>
+        <v>UsdLibor11MLastFixing_Quote#0002</v>
       </c>
       <c r="H21" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -1874,11 +1874,11 @@
       </c>
       <c r="F22" s="50" t="str">
         <f>_xll.qlLibor($E22,Currency,$C22,Currency&amp;$D22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor1Y#0001</v>
+        <v>UsdLibor1Y#0002</v>
       </c>
       <c r="G22" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E22&amp;"LastFixing_Quote",F22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor1YLastFixing_Quote#0001</v>
+        <v>UsdLibor1YLastFixing_Quote#0002</v>
       </c>
       <c r="H22" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -1987,13 +1987,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>UsdLiborSwapIsdaFixAm.xml</v>
       </c>
-      <c r="F6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="37" t="e">
+      <c r="F6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="F7" s="39" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm1Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm1Y#0002</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F8" s="39" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm2Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm2Y#0002</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="F9" s="39" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm3Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm3Y#0002</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="F10" s="39" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm4Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm4Y#0002</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="F11" s="39" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm5Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm5Y#0002</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="F12" s="39" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm6Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm6Y#0002</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="F13" s="39" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm7Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm7Y#0002</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="F14" s="39" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm8Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm8Y#0002</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="F15" s="39" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm9Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm9Y#0002</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F16" s="39" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm10Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm10Y#0002</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="F17" s="39" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm11Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm11Y#0002</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="F18" s="39" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm12Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm12Y#0002</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="F19" s="39" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm13Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm13Y#0002</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="F20" s="39" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm14Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm14Y#0002</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="F21" s="39" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm15Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm15Y#0002</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="F22" s="39" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm16Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm16Y#0002</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="F23" s="39" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm17Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm17Y#0002</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F24" s="39" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm18Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm18Y#0002</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="F25" s="39" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm19Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm19Y#0002</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="F26" s="39" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm20Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm20Y#0002</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="F27" s="39" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm21Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm21Y#0002</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="F28" s="39" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm22Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm22Y#0002</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="F29" s="39" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm23Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm23Y#0002</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="F30" s="39" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm24Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm24Y#0002</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="F31" s="39" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm25Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm25Y#0002</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="F32" s="39" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm26Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm26Y#0002</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="F33" s="39" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm27Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm27Y#0002</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F34" s="39" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm28Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm28Y#0002</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="F35" s="39" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm29Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm29Y#0002</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="F36" s="39" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm30Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm30Y#0002</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="F37" s="39" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm31Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm31Y#0002</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="F38" s="39" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm32Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm32Y#0002</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="F39" s="39" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm33Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm33Y#0002</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="F40" s="39" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm34Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm34Y#0002</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F41" s="39" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm35Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm35Y#0002</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F42" s="39" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm36Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm36Y#0002</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="F43" s="39" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm37Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm37Y#0002</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="F44" s="39" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm38Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm38Y#0002</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="F45" s="39" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm39Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm39Y#0002</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F46" s="39" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm40Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm40Y#0002</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="F47" s="39" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm41Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm41Y#0002</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="F48" s="39" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm42Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm42Y#0002</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="F49" s="39" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm43Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm43Y#0002</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="F50" s="39" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm44Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm44Y#0002</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="F51" s="39" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm45Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm45Y#0002</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="F52" s="39" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm46Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm46Y#0002</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="F53" s="39" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm47Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm47Y#0002</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="F54" s="39" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm48Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm48Y#0002</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="F55" s="39" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm49Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm49Y#0002</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="F56" s="39" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm50Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm50Y#0002</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="F57" s="39" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm51Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm51Y#0002</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="F58" s="39" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm52Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm52Y#0002</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="F59" s="39" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm53Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm53Y#0002</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="F60" s="39" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm54Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm54Y#0002</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="F61" s="39" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm55Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm55Y#0002</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="F62" s="39" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm56Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm56Y#0002</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="F63" s="39" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm57Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm57Y#0002</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="F64" s="39" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm58Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm58Y#0002</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="F65" s="39" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm59Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm59Y#0002</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="F66" s="39" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixAm60Y#0001</v>
+        <v>UsdLiborSwapIsdaFixAm60Y#0002</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -3412,13 +3412,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>UsdLiborSwapIsdaFixPm.xml</v>
       </c>
-      <c r="F6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="37" t="e">
+      <c r="F6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="F7" s="39" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm1Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm1Y#0002</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="F8" s="39" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm2Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm2Y#0002</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="F9" s="39" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm3Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm3Y#0002</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="F10" s="39" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm4Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm4Y#0002</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="F11" s="39" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm5Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm5Y#0002</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="F12" s="39" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm6Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm6Y#0002</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="F13" s="39" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm7Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm7Y#0002</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="F14" s="39" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm8Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm8Y#0002</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="F15" s="39" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm9Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm9Y#0002</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="F16" s="39" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm10Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm10Y#0002</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="F17" s="39" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm11Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm11Y#0002</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="F18" s="39" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm12Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm12Y#0002</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="F19" s="39" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm13Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm13Y#0002</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="F20" s="39" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm14Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm14Y#0002</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="F21" s="39" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm15Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm15Y#0002</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="F22" s="39" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm16Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm16Y#0002</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="F23" s="39" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm17Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm17Y#0002</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="F24" s="39" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm18Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm18Y#0002</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="F25" s="39" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm19Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm19Y#0002</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="F26" s="39" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm20Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm20Y#0002</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="F27" s="39" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm21Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm21Y#0002</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="F28" s="39" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm22Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm22Y#0002</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="F29" s="39" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm23Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm23Y#0002</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="F30" s="39" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm24Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm24Y#0002</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="F31" s="39" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm25Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm25Y#0002</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="F32" s="39" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm26Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm26Y#0002</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="F33" s="39" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm27Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm27Y#0002</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="F34" s="39" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm28Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm28Y#0002</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="F35" s="39" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm29Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm29Y#0002</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="F36" s="39" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm30Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm30Y#0002</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="F37" s="39" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm31Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm31Y#0002</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="F38" s="39" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm32Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm32Y#0002</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="F39" s="39" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm33Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm33Y#0002</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="F40" s="39" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm34Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm34Y#0002</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="F41" s="39" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm35Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm35Y#0002</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="F42" s="39" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm36Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm36Y#0002</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="F43" s="39" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm37Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm37Y#0002</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="F44" s="39" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm38Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm38Y#0002</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="F45" s="39" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm39Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm39Y#0002</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="F46" s="39" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm40Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm40Y#0002</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="F47" s="39" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm41Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm41Y#0002</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="F48" s="39" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm42Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm42Y#0002</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="F49" s="39" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm43Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm43Y#0002</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="F50" s="39" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm44Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm44Y#0002</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="F51" s="39" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm45Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm45Y#0002</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="F52" s="39" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm46Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm46Y#0002</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="F53" s="39" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm47Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm47Y#0002</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="F54" s="39" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm48Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm48Y#0002</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="F55" s="39" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm49Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm49Y#0002</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="F56" s="39" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm50Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm50Y#0002</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="F57" s="39" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm51Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm51Y#0002</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="F58" s="39" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm52Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm52Y#0002</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="F59" s="39" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm53Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm53Y#0002</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="F60" s="39" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm54Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm54Y#0002</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="F61" s="39" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm55Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm55Y#0002</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="F62" s="39" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm56Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm56Y#0002</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="F63" s="39" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm57Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm57Y#0002</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="F64" s="39" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm58Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm58Y#0002</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="F65" s="39" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm59Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm59Y#0002</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="F66" s="39" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwapIsdaFixPm60Y#0001</v>
+        <v>UsdLiborSwapIsdaFixPm60Y#0002</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -4878,13 +4878,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>UsdLiborSwapForBasisCalc.xml</v>
       </c>
-      <c r="F9" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F10:F69,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G9" s="37" t="e">
+      <c r="F9" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F10:F69,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="G9" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F9)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H9" s="35"/>
     </row>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="F10" s="39" t="str">
         <f>_xll.qlSwapIndex($E10,FixingType,C10,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc1Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc1Y#0002</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="F11" s="39" t="str">
         <f>_xll.qlSwapIndex($E11,FixingType,C11,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc2Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc2Y#0002</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="F12" s="39" t="str">
         <f>_xll.qlSwapIndex($E12,FixingType,C12,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc3Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc3Y#0002</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="F13" s="39" t="str">
         <f>_xll.qlSwapIndex($E13,FixingType,C13,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc4Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc4Y#0002</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="F14" s="39" t="str">
         <f>_xll.qlSwapIndex($E14,FixingType,C14,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc5Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc5Y#0002</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="F15" s="39" t="str">
         <f>_xll.qlSwapIndex($E15,FixingType,C15,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc6Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc6Y#0002</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="F16" s="39" t="str">
         <f>_xll.qlSwapIndex($E16,FixingType,C16,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc7Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc7Y#0002</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="F17" s="39" t="str">
         <f>_xll.qlSwapIndex($E17,FixingType,C17,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc8Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc8Y#0002</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="F18" s="39" t="str">
         <f>_xll.qlSwapIndex($E18,FixingType,C18,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc9Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc9Y#0002</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="F19" s="39" t="str">
         <f>_xll.qlSwapIndex($E19,FixingType,C19,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc10Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc10Y#0002</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="F20" s="39" t="str">
         <f>_xll.qlSwapIndex($E20,FixingType,C20,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc11Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc11Y#0002</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="F21" s="39" t="str">
         <f>_xll.qlSwapIndex($E21,FixingType,C21,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc12Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc12Y#0002</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="F22" s="39" t="str">
         <f>_xll.qlSwapIndex($E22,FixingType,C22,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc13Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc13Y#0002</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="F23" s="39" t="str">
         <f>_xll.qlSwapIndex($E23,FixingType,C23,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc14Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc14Y#0002</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="F24" s="39" t="str">
         <f>_xll.qlSwapIndex($E24,FixingType,C24,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc15Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc15Y#0002</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="F25" s="39" t="str">
         <f>_xll.qlSwapIndex($E25,FixingType,C25,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc16Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc16Y#0002</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="F26" s="39" t="str">
         <f>_xll.qlSwapIndex($E26,FixingType,C26,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc17Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc17Y#0002</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="F27" s="39" t="str">
         <f>_xll.qlSwapIndex($E27,FixingType,C27,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc18Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc18Y#0002</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="F28" s="39" t="str">
         <f>_xll.qlSwapIndex($E28,FixingType,C28,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc19Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc19Y#0002</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="F29" s="39" t="str">
         <f>_xll.qlSwapIndex($E29,FixingType,C29,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc20Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc20Y#0002</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="F30" s="39" t="str">
         <f>_xll.qlSwapIndex($E30,FixingType,C30,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc21Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc21Y#0002</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="F31" s="39" t="str">
         <f>_xll.qlSwapIndex($E31,FixingType,C31,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc22Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc22Y#0002</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="F32" s="39" t="str">
         <f>_xll.qlSwapIndex($E32,FixingType,C32,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc23Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc23Y#0002</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="F33" s="39" t="str">
         <f>_xll.qlSwapIndex($E33,FixingType,C33,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc24Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc24Y#0002</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="F34" s="39" t="str">
         <f>_xll.qlSwapIndex($E34,FixingType,C34,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc25Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc25Y#0002</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="F35" s="39" t="str">
         <f>_xll.qlSwapIndex($E35,FixingType,C35,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc26Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc26Y#0002</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="F36" s="39" t="str">
         <f>_xll.qlSwapIndex($E36,FixingType,C36,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc27Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc27Y#0002</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="F37" s="39" t="str">
         <f>_xll.qlSwapIndex($E37,FixingType,C37,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc28Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc28Y#0002</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="F38" s="39" t="str">
         <f>_xll.qlSwapIndex($E38,FixingType,C38,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc29Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc29Y#0002</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="F39" s="39" t="str">
         <f>_xll.qlSwapIndex($E39,FixingType,C39,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc30Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc30Y#0002</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="F40" s="39" t="str">
         <f>_xll.qlSwapIndex($E40,FixingType,C40,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc31Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc31Y#0002</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="F41" s="39" t="str">
         <f>_xll.qlSwapIndex($E41,FixingType,C41,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc32Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc32Y#0002</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="F42" s="39" t="str">
         <f>_xll.qlSwapIndex($E42,FixingType,C42,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc33Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc33Y#0002</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="F43" s="39" t="str">
         <f>_xll.qlSwapIndex($E43,FixingType,C43,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc34Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc34Y#0002</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="F44" s="39" t="str">
         <f>_xll.qlSwapIndex($E44,FixingType,C44,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc35Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc35Y#0002</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="F45" s="39" t="str">
         <f>_xll.qlSwapIndex($E45,FixingType,C45,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc36Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc36Y#0002</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="F46" s="39" t="str">
         <f>_xll.qlSwapIndex($E46,FixingType,C46,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc37Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc37Y#0002</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="F47" s="39" t="str">
         <f>_xll.qlSwapIndex($E47,FixingType,C47,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc38Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc38Y#0002</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="F48" s="39" t="str">
         <f>_xll.qlSwapIndex($E48,FixingType,C48,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc39Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc39Y#0002</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="F49" s="39" t="str">
         <f>_xll.qlSwapIndex($E49,FixingType,C49,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc40Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc40Y#0002</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="F50" s="39" t="str">
         <f>_xll.qlSwapIndex($E50,FixingType,C50,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc41Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc41Y#0002</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="F51" s="39" t="str">
         <f>_xll.qlSwapIndex($E51,FixingType,C51,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc42Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc42Y#0002</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="F52" s="39" t="str">
         <f>_xll.qlSwapIndex($E52,FixingType,C52,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc43Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc43Y#0002</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="F53" s="39" t="str">
         <f>_xll.qlSwapIndex($E53,FixingType,C53,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc44Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc44Y#0002</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="F54" s="39" t="str">
         <f>_xll.qlSwapIndex($E54,FixingType,C54,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc45Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc45Y#0002</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="F55" s="39" t="str">
         <f>_xll.qlSwapIndex($E55,FixingType,C55,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc46Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc46Y#0002</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="F56" s="39" t="str">
         <f>_xll.qlSwapIndex($E56,FixingType,C56,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc47Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc47Y#0002</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="F57" s="39" t="str">
         <f>_xll.qlSwapIndex($E57,FixingType,C57,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc48Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc48Y#0002</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="F58" s="39" t="str">
         <f>_xll.qlSwapIndex($E58,FixingType,C58,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc49Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc49Y#0002</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="F59" s="39" t="str">
         <f>_xll.qlSwapIndex($E59,FixingType,C59,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc50Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc50Y#0002</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -6002,7 +6002,7 @@
       </c>
       <c r="F60" s="39" t="str">
         <f>_xll.qlSwapIndex($E60,FixingType,C60,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc51Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc51Y#0002</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="F61" s="39" t="str">
         <f>_xll.qlSwapIndex($E61,FixingType,C61,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc52Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc52Y#0002</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="F62" s="39" t="str">
         <f>_xll.qlSwapIndex($E62,FixingType,C62,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc53Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc53Y#0002</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -6068,7 +6068,7 @@
       </c>
       <c r="F63" s="39" t="str">
         <f>_xll.qlSwapIndex($E63,FixingType,C63,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc54Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc54Y#0002</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="F64" s="39" t="str">
         <f>_xll.qlSwapIndex($E64,FixingType,C64,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc55Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc55Y#0002</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="F65" s="39" t="str">
         <f>_xll.qlSwapIndex($E65,FixingType,C65,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc56Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc56Y#0002</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="F66" s="39" t="str">
         <f>_xll.qlSwapIndex($E66,FixingType,C66,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc57Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc57Y#0002</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="F67" s="39" t="str">
         <f>_xll.qlSwapIndex($E67,FixingType,C67,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc58Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc58Y#0002</v>
       </c>
       <c r="G67" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="F68" s="39" t="str">
         <f>_xll.qlSwapIndex($E68,FixingType,C68,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc59Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc59Y#0002</v>
       </c>
       <c r="G68" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="F69" s="39" t="str">
         <f>_xll.qlSwapIndex($E69,FixingType,C69,2,Currency,$F$6,"1Y","f","act/360","USDLibor3M",Discounting,Permanent,$F$7,ObjectOverwrite)</f>
-        <v>UsdLiborSwapForBasisCalc60Y#0001</v>
+        <v>UsdLiborSwapForBasisCalc60Y#0002</v>
       </c>
       <c r="G69" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -6303,14 +6303,14 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;".xml"</f>
         <v>UsdLibor-Mx.xml</v>
       </c>
-      <c r="F5" s="49" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
+      <c r="F5" s="49">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F6:G22,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>30</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="47" t="e">
+      <c r="H5" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F5)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="I5" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(G5)</f>
@@ -6376,11 +6376,11 @@
       </c>
       <c r="F8" s="50" t="str">
         <f>_xll.qlLibor($E8,Currency,$C8,Currency&amp;$D8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-MxSW#0001</v>
+        <v>UsdLibor-MxSW#0002</v>
       </c>
       <c r="G8" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E8&amp;"LastFixing_Quote",F8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-MxSWLastFixing_Quote#0001</v>
+        <v>UsdLibor-MxSWLastFixing_Quote#0002</v>
       </c>
       <c r="H8" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -6406,11 +6406,11 @@
       </c>
       <c r="F9" s="50" t="str">
         <f>_xll.qlLibor($E9,Currency,$C9,Currency&amp;$D9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx2W#0001</v>
+        <v>UsdLibor-Mx2W#0002</v>
       </c>
       <c r="G9" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E9&amp;"LastFixing_Quote",F9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx2WLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx2WLastFixing_Quote#0002</v>
       </c>
       <c r="H9" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -6436,11 +6436,11 @@
       </c>
       <c r="F10" s="50" t="str">
         <f>_xll.qlLibor($E10,Currency,$C10,Currency&amp;$D10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx3W#0001</v>
+        <v>UsdLibor-Mx3W#0002</v>
       </c>
       <c r="G10" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E10&amp;"LastFixing_Quote",F10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx3WLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx3WLastFixing_Quote#0002</v>
       </c>
       <c r="H10" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -6466,11 +6466,11 @@
       </c>
       <c r="F11" s="50" t="str">
         <f>_xll.qlLibor($E11,Currency,$C11,Currency&amp;$D11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx1M#0001</v>
+        <v>UsdLibor-Mx1M#0002</v>
       </c>
       <c r="G11" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E11&amp;"LastFixing_Quote",F11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx1MLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx1MLastFixing_Quote#0002</v>
       </c>
       <c r="H11" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -6496,11 +6496,11 @@
       </c>
       <c r="F12" s="50" t="str">
         <f>_xll.qlLibor($E12,Currency,$C12,Currency&amp;$D12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx2M#0001</v>
+        <v>UsdLibor-Mx2M#0002</v>
       </c>
       <c r="G12" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E12&amp;"LastFixing_Quote",F12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx2MLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx2MLastFixing_Quote#0002</v>
       </c>
       <c r="H12" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -6526,11 +6526,11 @@
       </c>
       <c r="F13" s="50" t="str">
         <f>_xll.qlLibor($E13,Currency,$C13,Currency&amp;$D13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx3M#0001</v>
+        <v>UsdLibor-Mx3M#0002</v>
       </c>
       <c r="G13" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E13&amp;"LastFixing_Quote",F13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx3MLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx3MLastFixing_Quote#0002</v>
       </c>
       <c r="H13" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -6556,11 +6556,11 @@
       </c>
       <c r="F14" s="50" t="str">
         <f>_xll.qlLibor($E14,Currency,$C14,Currency&amp;$D14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx4M#0001</v>
+        <v>UsdLibor-Mx4M#0002</v>
       </c>
       <c r="G14" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E14&amp;"LastFixing_Quote",F14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx4MLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx4MLastFixing_Quote#0002</v>
       </c>
       <c r="H14" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -6586,11 +6586,11 @@
       </c>
       <c r="F15" s="50" t="str">
         <f>_xll.qlLibor($E15,Currency,$C15,Currency&amp;$D15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx5M#0001</v>
+        <v>UsdLibor-Mx5M#0002</v>
       </c>
       <c r="G15" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E15&amp;"LastFixing_Quote",F15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx5MLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx5MLastFixing_Quote#0002</v>
       </c>
       <c r="H15" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -6616,11 +6616,11 @@
       </c>
       <c r="F16" s="50" t="str">
         <f>_xll.qlLibor($E16,Currency,$C16,Currency&amp;$D16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx6M#0001</v>
+        <v>UsdLibor-Mx6M#0002</v>
       </c>
       <c r="G16" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E16&amp;"LastFixing_Quote",F16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx6MLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx6MLastFixing_Quote#0002</v>
       </c>
       <c r="H16" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -6646,11 +6646,11 @@
       </c>
       <c r="F17" s="50" t="str">
         <f>_xll.qlLibor($E17,Currency,$C17,Currency&amp;$D17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx7M#0001</v>
+        <v>UsdLibor-Mx7M#0002</v>
       </c>
       <c r="G17" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E17&amp;"LastFixing_Quote",F17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx7MLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx7MLastFixing_Quote#0002</v>
       </c>
       <c r="H17" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -6676,11 +6676,11 @@
       </c>
       <c r="F18" s="50" t="str">
         <f>_xll.qlLibor($E18,Currency,$C18,Currency&amp;$D18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx8M#0001</v>
+        <v>UsdLibor-Mx8M#0002</v>
       </c>
       <c r="G18" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E18&amp;"LastFixing_Quote",F18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx8MLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx8MLastFixing_Quote#0002</v>
       </c>
       <c r="H18" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -6706,11 +6706,11 @@
       </c>
       <c r="F19" s="50" t="str">
         <f>_xll.qlLibor($E19,Currency,$C19,Currency&amp;$D19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx9M#0001</v>
+        <v>UsdLibor-Mx9M#0002</v>
       </c>
       <c r="G19" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E19&amp;"LastFixing_Quote",F19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx9MLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx9MLastFixing_Quote#0002</v>
       </c>
       <c r="H19" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -6736,11 +6736,11 @@
       </c>
       <c r="F20" s="50" t="str">
         <f>_xll.qlLibor($E20,Currency,$C20,Currency&amp;$D20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx10M#0001</v>
+        <v>UsdLibor-Mx10M#0002</v>
       </c>
       <c r="G20" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E20&amp;"LastFixing_Quote",F20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx10MLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx10MLastFixing_Quote#0002</v>
       </c>
       <c r="H20" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -6766,11 +6766,11 @@
       </c>
       <c r="F21" s="50" t="str">
         <f>_xll.qlLibor($E21,Currency,$C21,Currency&amp;$D21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx11M#0001</v>
+        <v>UsdLibor-Mx11M#0002</v>
       </c>
       <c r="G21" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E21&amp;"LastFixing_Quote",F21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx11MLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx11MLastFixing_Quote#0002</v>
       </c>
       <c r="H21" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -6796,11 +6796,11 @@
       </c>
       <c r="F22" s="50" t="str">
         <f>_xll.qlLibor($E22,Currency,$C22,Currency&amp;$D22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx1Y#0001</v>
+        <v>UsdLibor-Mx1Y#0002</v>
       </c>
       <c r="G22" s="50" t="str">
         <f>_xll.qlLastFixingQuote(E22&amp;"LastFixing_Quote",F22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLibor-Mx1YLastFixing_Quote#0001</v>
+        <v>UsdLibor-Mx1YLastFixing_Quote#0002</v>
       </c>
       <c r="H22" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -6908,13 +6908,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>UsdLiborSwap-MxIsdaFixAm.xml</v>
       </c>
-      <c r="F6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="37" t="e">
+      <c r="F6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="F7" s="39" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm1Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm1Y#0002</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="F8" s="39" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm2Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm2Y#0002</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="F9" s="39" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm3Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm3Y#0002</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="F10" s="39" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm4Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm4Y#0002</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -7020,7 +7020,7 @@
       </c>
       <c r="F11" s="39" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm5Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm5Y#0002</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="F12" s="39" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm6Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm6Y#0002</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="F13" s="39" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm7Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm7Y#0002</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="F14" s="39" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm8Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm8Y#0002</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="F15" s="39" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm9Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm9Y#0002</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -7130,7 +7130,7 @@
       </c>
       <c r="F16" s="39" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm10Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm10Y#0002</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -7152,7 +7152,7 @@
       </c>
       <c r="F17" s="39" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm11Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm11Y#0002</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="F18" s="39" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm12Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm12Y#0002</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="F19" s="39" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm13Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm13Y#0002</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="F20" s="39" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm14Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm14Y#0002</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="F21" s="39" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm15Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm15Y#0002</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -7262,7 +7262,7 @@
       </c>
       <c r="F22" s="39" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm16Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm16Y#0002</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="F23" s="39" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm17Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm17Y#0002</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -7306,7 +7306,7 @@
       </c>
       <c r="F24" s="39" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm18Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm18Y#0002</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="F25" s="39" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm19Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm19Y#0002</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="F26" s="39" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm20Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm20Y#0002</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="F27" s="39" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm21Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm21Y#0002</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -7394,7 +7394,7 @@
       </c>
       <c r="F28" s="39" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm22Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm22Y#0002</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="F29" s="39" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm23Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm23Y#0002</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="F30" s="39" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm24Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm24Y#0002</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="F31" s="39" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm25Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm25Y#0002</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -7482,7 +7482,7 @@
       </c>
       <c r="F32" s="39" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm26Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm26Y#0002</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="F33" s="39" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm27Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm27Y#0002</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="F34" s="39" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm28Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm28Y#0002</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="F35" s="39" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm29Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm29Y#0002</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -7570,7 +7570,7 @@
       </c>
       <c r="F36" s="39" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm30Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm30Y#0002</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="F37" s="39" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm31Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm31Y#0002</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -7614,7 +7614,7 @@
       </c>
       <c r="F38" s="39" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm32Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm32Y#0002</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="F39" s="39" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm33Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm33Y#0002</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -7658,7 +7658,7 @@
       </c>
       <c r="F40" s="39" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm34Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm34Y#0002</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -7680,7 +7680,7 @@
       </c>
       <c r="F41" s="39" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm35Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm35Y#0002</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="F42" s="39" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm36Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm36Y#0002</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="F43" s="39" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm37Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm37Y#0002</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="F44" s="39" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm38Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm38Y#0002</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="F45" s="39" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm39Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm39Y#0002</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="F46" s="39" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm40Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm40Y#0002</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="F47" s="39" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm41Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm41Y#0002</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="F48" s="39" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm42Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm42Y#0002</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="F49" s="39" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm43Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm43Y#0002</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="F50" s="39" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm44Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm44Y#0002</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="F51" s="39" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm45Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm45Y#0002</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="F52" s="39" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm46Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm46Y#0002</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -7944,7 +7944,7 @@
       </c>
       <c r="F53" s="39" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm47Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm47Y#0002</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="F54" s="39" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm48Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm48Y#0002</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="F55" s="39" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm49Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm49Y#0002</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="F56" s="39" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm50Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm50Y#0002</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="F57" s="39" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm51Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm51Y#0002</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -8054,7 +8054,7 @@
       </c>
       <c r="F58" s="39" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm52Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm52Y#0002</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="F59" s="39" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm53Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm53Y#0002</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="F60" s="39" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm54Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm54Y#0002</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="F61" s="39" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm55Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm55Y#0002</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="F62" s="39" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm56Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm56Y#0002</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="F63" s="39" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm57Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm57Y#0002</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="F64" s="39" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm58Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm58Y#0002</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -8208,7 +8208,7 @@
       </c>
       <c r="F65" s="39" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm59Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm59Y#0002</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="F66" s="39" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixAm60Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixAm60Y#0002</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -8333,13 +8333,13 @@
         <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;".xml"</f>
         <v>UsdLiborSwap-MxIsdaFixPm.xml</v>
       </c>
-      <c r="F6" s="34" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="37" t="e">
+      <c r="F6" s="34">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F7:F66,SerializationPath&amp;FileName,FileOverwrite,,Serialize),"---")</f>
+        <v>60</v>
+      </c>
+      <c r="G6" s="37" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H6" s="35"/>
     </row>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="F7" s="39" t="str">
         <f>_xll.qlLiborSwap($E7,Currency,FixingType,$C7,Currency&amp;$D7,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm1Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm1Y#0002</v>
       </c>
       <c r="G7" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="F8" s="39" t="str">
         <f>_xll.qlLiborSwap($E8,Currency,FixingType,$C8,Currency&amp;$D8,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm2Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm2Y#0002</v>
       </c>
       <c r="G8" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="F9" s="39" t="str">
         <f>_xll.qlLiborSwap($E9,Currency,FixingType,$C9,Currency&amp;$D9,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm3Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm3Y#0002</v>
       </c>
       <c r="G9" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="F10" s="39" t="str">
         <f>_xll.qlLiborSwap($E10,Currency,FixingType,$C10,Currency&amp;$D10,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm4Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm4Y#0002</v>
       </c>
       <c r="G10" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="F11" s="39" t="str">
         <f>_xll.qlLiborSwap($E11,Currency,FixingType,$C11,Currency&amp;$D11,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm5Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm5Y#0002</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="F12" s="39" t="str">
         <f>_xll.qlLiborSwap($E12,Currency,FixingType,$C12,Currency&amp;$D12,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm6Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm6Y#0002</v>
       </c>
       <c r="G12" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="F13" s="39" t="str">
         <f>_xll.qlLiborSwap($E13,Currency,FixingType,$C13,Currency&amp;$D13,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm7Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm7Y#0002</v>
       </c>
       <c r="G13" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="F14" s="39" t="str">
         <f>_xll.qlLiborSwap($E14,Currency,FixingType,$C14,Currency&amp;$D14,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm8Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm8Y#0002</v>
       </c>
       <c r="G14" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F15" s="39" t="str">
         <f>_xll.qlLiborSwap($E15,Currency,FixingType,$C15,Currency&amp;$D15,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm9Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm9Y#0002</v>
       </c>
       <c r="G15" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="F16" s="39" t="str">
         <f>_xll.qlLiborSwap($E16,Currency,FixingType,$C16,Currency&amp;$D16,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm10Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm10Y#0002</v>
       </c>
       <c r="G16" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="F17" s="39" t="str">
         <f>_xll.qlLiborSwap($E17,Currency,FixingType,$C17,Currency&amp;$D17,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm11Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm11Y#0002</v>
       </c>
       <c r="G17" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -8599,7 +8599,7 @@
       </c>
       <c r="F18" s="39" t="str">
         <f>_xll.qlLiborSwap($E18,Currency,FixingType,$C18,Currency&amp;$D18,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm12Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm12Y#0002</v>
       </c>
       <c r="G18" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="F19" s="39" t="str">
         <f>_xll.qlLiborSwap($E19,Currency,FixingType,$C19,Currency&amp;$D19,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm13Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm13Y#0002</v>
       </c>
       <c r="G19" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -8643,7 +8643,7 @@
       </c>
       <c r="F20" s="39" t="str">
         <f>_xll.qlLiborSwap($E20,Currency,FixingType,$C20,Currency&amp;$D20,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm14Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm14Y#0002</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="F21" s="39" t="str">
         <f>_xll.qlLiborSwap($E21,Currency,FixingType,$C21,Currency&amp;$D21,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm15Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm15Y#0002</v>
       </c>
       <c r="G21" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="F22" s="39" t="str">
         <f>_xll.qlLiborSwap($E22,Currency,FixingType,$C22,Currency&amp;$D22,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm16Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm16Y#0002</v>
       </c>
       <c r="G22" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="F23" s="39" t="str">
         <f>_xll.qlLiborSwap($E23,Currency,FixingType,$C23,Currency&amp;$D23,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm17Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm17Y#0002</v>
       </c>
       <c r="G23" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="F24" s="39" t="str">
         <f>_xll.qlLiborSwap($E24,Currency,FixingType,$C24,Currency&amp;$D24,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm18Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm18Y#0002</v>
       </c>
       <c r="G24" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="F25" s="39" t="str">
         <f>_xll.qlLiborSwap($E25,Currency,FixingType,$C25,Currency&amp;$D25,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm19Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm19Y#0002</v>
       </c>
       <c r="G25" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -8775,7 +8775,7 @@
       </c>
       <c r="F26" s="39" t="str">
         <f>_xll.qlLiborSwap($E26,Currency,FixingType,$C26,Currency&amp;$D26,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm20Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm20Y#0002</v>
       </c>
       <c r="G26" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="F27" s="39" t="str">
         <f>_xll.qlLiborSwap($E27,Currency,FixingType,$C27,Currency&amp;$D27,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm21Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm21Y#0002</v>
       </c>
       <c r="G27" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="F28" s="39" t="str">
         <f>_xll.qlLiborSwap($E28,Currency,FixingType,$C28,Currency&amp;$D28,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm22Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm22Y#0002</v>
       </c>
       <c r="G28" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="F29" s="39" t="str">
         <f>_xll.qlLiborSwap($E29,Currency,FixingType,$C29,Currency&amp;$D29,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm23Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm23Y#0002</v>
       </c>
       <c r="G29" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="F30" s="39" t="str">
         <f>_xll.qlLiborSwap($E30,Currency,FixingType,$C30,Currency&amp;$D30,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm24Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm24Y#0002</v>
       </c>
       <c r="G30" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="F31" s="39" t="str">
         <f>_xll.qlLiborSwap($E31,Currency,FixingType,$C31,Currency&amp;$D31,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm25Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm25Y#0002</v>
       </c>
       <c r="G31" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="F32" s="39" t="str">
         <f>_xll.qlLiborSwap($E32,Currency,FixingType,$C32,Currency&amp;$D32,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm26Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm26Y#0002</v>
       </c>
       <c r="G32" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="F33" s="39" t="str">
         <f>_xll.qlLiborSwap($E33,Currency,FixingType,$C33,Currency&amp;$D33,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm27Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm27Y#0002</v>
       </c>
       <c r="G33" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="F34" s="39" t="str">
         <f>_xll.qlLiborSwap($E34,Currency,FixingType,$C34,Currency&amp;$D34,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm28Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm28Y#0002</v>
       </c>
       <c r="G34" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="F35" s="39" t="str">
         <f>_xll.qlLiborSwap($E35,Currency,FixingType,$C35,Currency&amp;$D35,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm29Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm29Y#0002</v>
       </c>
       <c r="G35" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="F36" s="39" t="str">
         <f>_xll.qlLiborSwap($E36,Currency,FixingType,$C36,Currency&amp;$D36,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm30Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm30Y#0002</v>
       </c>
       <c r="G36" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="F37" s="39" t="str">
         <f>_xll.qlLiborSwap($E37,Currency,FixingType,$C37,Currency&amp;$D37,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm31Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm31Y#0002</v>
       </c>
       <c r="G37" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -9039,7 +9039,7 @@
       </c>
       <c r="F38" s="39" t="str">
         <f>_xll.qlLiborSwap($E38,Currency,FixingType,$C38,Currency&amp;$D38,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm32Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm32Y#0002</v>
       </c>
       <c r="G38" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="F39" s="39" t="str">
         <f>_xll.qlLiborSwap($E39,Currency,FixingType,$C39,Currency&amp;$D39,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm33Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm33Y#0002</v>
       </c>
       <c r="G39" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="F40" s="39" t="str">
         <f>_xll.qlLiborSwap($E40,Currency,FixingType,$C40,Currency&amp;$D40,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm34Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm34Y#0002</v>
       </c>
       <c r="G40" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="F41" s="39" t="str">
         <f>_xll.qlLiborSwap($E41,Currency,FixingType,$C41,Currency&amp;$D41,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm35Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm35Y#0002</v>
       </c>
       <c r="G41" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="F42" s="39" t="str">
         <f>_xll.qlLiborSwap($E42,Currency,FixingType,$C42,Currency&amp;$D42,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm36Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm36Y#0002</v>
       </c>
       <c r="G42" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="F43" s="39" t="str">
         <f>_xll.qlLiborSwap($E43,Currency,FixingType,$C43,Currency&amp;$D43,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm37Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm37Y#0002</v>
       </c>
       <c r="G43" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="F44" s="39" t="str">
         <f>_xll.qlLiborSwap($E44,Currency,FixingType,$C44,Currency&amp;$D44,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm38Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm38Y#0002</v>
       </c>
       <c r="G44" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="F45" s="39" t="str">
         <f>_xll.qlLiborSwap($E45,Currency,FixingType,$C45,Currency&amp;$D45,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm39Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm39Y#0002</v>
       </c>
       <c r="G45" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -9215,7 +9215,7 @@
       </c>
       <c r="F46" s="39" t="str">
         <f>_xll.qlLiborSwap($E46,Currency,FixingType,$C46,Currency&amp;$D46,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm40Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm40Y#0002</v>
       </c>
       <c r="G46" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="F47" s="39" t="str">
         <f>_xll.qlLiborSwap($E47,Currency,FixingType,$C47,Currency&amp;$D47,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm41Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm41Y#0002</v>
       </c>
       <c r="G47" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="F48" s="39" t="str">
         <f>_xll.qlLiborSwap($E48,Currency,FixingType,$C48,Currency&amp;$D48,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm42Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm42Y#0002</v>
       </c>
       <c r="G48" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="F49" s="39" t="str">
         <f>_xll.qlLiborSwap($E49,Currency,FixingType,$C49,Currency&amp;$D49,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm43Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm43Y#0002</v>
       </c>
       <c r="G49" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="F50" s="39" t="str">
         <f>_xll.qlLiborSwap($E50,Currency,FixingType,$C50,Currency&amp;$D50,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm44Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm44Y#0002</v>
       </c>
       <c r="G50" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="F51" s="39" t="str">
         <f>_xll.qlLiborSwap($E51,Currency,FixingType,$C51,Currency&amp;$D51,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm45Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm45Y#0002</v>
       </c>
       <c r="G51" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="F52" s="39" t="str">
         <f>_xll.qlLiborSwap($E52,Currency,FixingType,$C52,Currency&amp;$D52,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm46Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm46Y#0002</v>
       </c>
       <c r="G52" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="F53" s="39" t="str">
         <f>_xll.qlLiborSwap($E53,Currency,FixingType,$C53,Currency&amp;$D53,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm47Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm47Y#0002</v>
       </c>
       <c r="G53" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="F54" s="39" t="str">
         <f>_xll.qlLiborSwap($E54,Currency,FixingType,$C54,Currency&amp;$D54,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm48Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm48Y#0002</v>
       </c>
       <c r="G54" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="F55" s="39" t="str">
         <f>_xll.qlLiborSwap($E55,Currency,FixingType,$C55,Currency&amp;$D55,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm49Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm49Y#0002</v>
       </c>
       <c r="G55" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="F56" s="39" t="str">
         <f>_xll.qlLiborSwap($E56,Currency,FixingType,$C56,Currency&amp;$D56,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm50Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm50Y#0002</v>
       </c>
       <c r="G56" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="F57" s="39" t="str">
         <f>_xll.qlLiborSwap($E57,Currency,FixingType,$C57,Currency&amp;$D57,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm51Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm51Y#0002</v>
       </c>
       <c r="G57" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -9479,7 +9479,7 @@
       </c>
       <c r="F58" s="39" t="str">
         <f>_xll.qlLiborSwap($E58,Currency,FixingType,$C58,Currency&amp;$D58,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm52Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm52Y#0002</v>
       </c>
       <c r="G58" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="F59" s="39" t="str">
         <f>_xll.qlLiborSwap($E59,Currency,FixingType,$C59,Currency&amp;$D59,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm53Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm53Y#0002</v>
       </c>
       <c r="G59" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="F60" s="39" t="str">
         <f>_xll.qlLiborSwap($E60,Currency,FixingType,$C60,Currency&amp;$D60,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm54Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm54Y#0002</v>
       </c>
       <c r="G60" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="F61" s="39" t="str">
         <f>_xll.qlLiborSwap($E61,Currency,FixingType,$C61,Currency&amp;$D61,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm55Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm55Y#0002</v>
       </c>
       <c r="G61" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -9567,7 +9567,7 @@
       </c>
       <c r="F62" s="39" t="str">
         <f>_xll.qlLiborSwap($E62,Currency,FixingType,$C62,Currency&amp;$D62,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm56Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm56Y#0002</v>
       </c>
       <c r="G62" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F63" s="39" t="str">
         <f>_xll.qlLiborSwap($E63,Currency,FixingType,$C63,Currency&amp;$D63,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm57Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm57Y#0002</v>
       </c>
       <c r="G63" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="F64" s="39" t="str">
         <f>_xll.qlLiborSwap($E64,Currency,FixingType,$C64,Currency&amp;$D64,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm58Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm58Y#0002</v>
       </c>
       <c r="G64" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="F65" s="39" t="str">
         <f>_xll.qlLiborSwap($E65,Currency,FixingType,$C65,Currency&amp;$D65,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm59Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm59Y#0002</v>
       </c>
       <c r="G65" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="F66" s="39" t="str">
         <f>_xll.qlLiborSwap($E66,Currency,FixingType,$C66,Currency&amp;$D66,Discounting2,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>UsdLiborSwap-MxIsdaFixPm60Y#0001</v>
+        <v>UsdLiborSwap-MxIsdaFixPm60Y#0002</v>
       </c>
       <c r="G66" s="37" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
